--- a/data_analysis/output.xlsx
+++ b/data_analysis/output.xlsx
@@ -429,4762 +429,4795 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>43786</v>
+        <v>43793</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>8.267195767195768E-07</v>
+        <v>1.653439153439154E-06</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>0.9969076165102094</v>
+        <v>0.9967911558890679</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>43793</v>
+        <v>43800</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="D4">
-        <v>8.267195767195768E-07</v>
-      </c>
-      <c r="E4">
-        <v>14</v>
+        <v>-1.102292768959435E-06</v>
       </c>
       <c r="G4">
-        <v>0.9896009316589477</v>
+        <v>0.9889209712863979</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>12.75</v>
+        <v>13.75</v>
       </c>
       <c r="D5">
-        <v>-4.133597883597884E-07</v>
+        <v>-9.645061728395073E-07</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0.978916286628625</v>
+        <v>0.977753702509</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>43807</v>
+        <v>43814</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>12.2</v>
+        <v>13.8</v>
       </c>
       <c r="D6">
-        <v>-9.093915343915356E-07</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
+        <v>8.267195767195885E-08</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>0.965091624767152</v>
+        <v>0.9635783066113605</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>43814</v>
+        <v>43821</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>12.16666666666667</v>
+        <v>13.5</v>
       </c>
       <c r="D7">
-        <v>-5.511463844797158E-08</v>
-      </c>
-      <c r="E7">
+        <v>-4.960317460317472E-07</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>0.9479885931446023</v>
+        <v>0.9461595528298427</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>43821</v>
+        <v>43828</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="D8">
-        <v>-2.755731922398579E-07</v>
+        <v>-1.181027966742248E-07</v>
       </c>
       <c r="G8">
-        <v>0.9274097411147992</v>
+        <v>0.9252741419715285</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>43828</v>
+        <v>43835</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>11.875</v>
+        <v>13.75</v>
       </c>
       <c r="D9">
-        <v>-2.066798941798942E-07</v>
+        <v>5.314625850340132E-07</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>0.9036549790891751</v>
+        <v>0.9010743264046874</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>43835</v>
+        <v>43842</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>12.11111111111111</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="D10">
-        <v>3.903953556731328E-07</v>
+        <v>2.296443268665497E-07</v>
       </c>
       <c r="G10">
-        <v>0.8771792333993158</v>
+        <v>0.8740706817923786</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>43842</v>
+        <v>43849</v>
       </c>
       <c r="B11">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>12.3</v>
+        <v>13.9</v>
       </c>
       <c r="D11">
-        <v>3.123162845385086E-07</v>
+        <v>1.837154614932386E-08</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0.8482391818711421</v>
+        <v>0.8446033353801237</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>43849</v>
+        <v>43856</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>12.36363636363636</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>1.052188552188535E-07</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
+        <v>1.653439153439148E-07</v>
       </c>
       <c r="G12">
-        <v>0.8171734787666437</v>
+        <v>0.8129632698573934</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>43856</v>
+        <v>43863</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>12.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="D13">
-        <v>2.25468975468976E-07</v>
+        <v>2.755731922398579E-07</v>
       </c>
       <c r="G13">
-        <v>0.7840327621720619</v>
+        <v>0.7792717811948775</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>43863</v>
+        <v>43870</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>12.69230769230769</v>
+        <v>14.46153846153846</v>
       </c>
       <c r="D14">
-        <v>3.179690679690668E-07</v>
+        <v>4.875525708859054E-07</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>0.7491710808619793</v>
+        <v>0.7437341967073271</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>43870</v>
+        <v>43877</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14.57142857142857</v>
       </c>
       <c r="D15">
-        <v>5.087505087505099E-07</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
+        <v>1.816966102680382E-07</v>
       </c>
       <c r="G15">
-        <v>0.7129323835855217</v>
+        <v>0.7067715944452915</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>43877</v>
+        <v>43884</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>13.13333333333333</v>
+        <v>14.6</v>
       </c>
       <c r="D16">
-        <v>2.204585537918863E-07</v>
+        <v>4.724111866968993E-08</v>
       </c>
       <c r="G16">
-        <v>0.6756955387051532</v>
+        <v>0.6688090254574373</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>43884</v>
+        <v>43891</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>13.1875</v>
+        <v>14.625</v>
       </c>
       <c r="D17">
-        <v>8.956128747795492E-08</v>
+        <v>4.133597883597943E-08</v>
       </c>
       <c r="G17">
-        <v>0.6377047061848188</v>
+        <v>0.6301674736524118</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43891</v>
+        <v>43898</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>13.23529411764706</v>
+        <v>15.29411764705882</v>
       </c>
       <c r="D18">
-        <v>7.902466542172287E-08</v>
+        <v>1.106345315904141E-06</v>
+      </c>
+      <c r="E18">
+        <v>26</v>
       </c>
       <c r="G18">
-        <v>0.5994714837693614</v>
+        <v>0.5913115373441722</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>43898</v>
+        <v>43905</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>13.77777777777778</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="D19">
-        <v>8.969637237611121E-07</v>
+        <v>8.915603278348374E-07</v>
       </c>
       <c r="G19">
-        <v>0.5611206322902107</v>
+        <v>0.5525899693515892</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>43905</v>
+        <v>43912</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>14.26315789473684</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>8.02546489680992E-07</v>
+        <v>2.755731922398579E-07</v>
       </c>
       <c r="G20">
-        <v>0.5228193095623562</v>
+        <v>0.5138858018165214</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>43912</v>
+        <v>43919</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21">
-        <v>14.4</v>
+        <v>16.05</v>
       </c>
       <c r="D21">
-        <v>2.262600946811473E-07</v>
+        <v>8.267195767195885E-08</v>
       </c>
       <c r="G21">
-        <v>0.4845840480525389</v>
+        <v>0.4750531110641538</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>14.42857142857143</v>
+        <v>16.04761904761905</v>
       </c>
       <c r="D22">
-        <v>4.724111866968993E-08</v>
+        <v>-3.936759889142296E-09</v>
       </c>
       <c r="G22">
-        <v>0.4466735670907878</v>
+        <v>0.436507414625699</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>43926</v>
+        <v>43933</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>14.57142857142857</v>
+        <v>16.14285714285714</v>
       </c>
       <c r="D23">
-        <v>2.362055933484497E-07</v>
+        <v>1.574703955656331E-07</v>
       </c>
       <c r="G23">
-        <v>0.4097699832047774</v>
+        <v>0.3989435668672987</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>43933</v>
+        <v>43940</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>14.61904761904762</v>
+        <v>16.14285714285714</v>
       </c>
       <c r="D24">
-        <v>7.873519778281656E-08</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3749258054325399</v>
+        <v>0.3635321937568308</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>43940</v>
+        <v>43947</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>14.61904761904762</v>
+        <v>16.57142857142857</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7.086167800453549E-07</v>
       </c>
       <c r="G25">
-        <v>0.3415524888415049</v>
+        <v>0.3296716735486399</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>43947</v>
+        <v>43954</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>17.19047619047619</v>
       </c>
       <c r="D26">
-        <v>6.298815822625353E-07</v>
+        <v>1.023557571176615E-06</v>
       </c>
       <c r="G26">
-        <v>0.3096253459353894</v>
+        <v>0.2975414590130541</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>15.57142857142857</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="D27">
-        <v>9.448223733938016E-07</v>
+        <v>1.102292768959438E-06</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>0.2791502253775808</v>
+        <v>0.2671903168828873</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>43961</v>
+        <v>43968</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>16.19047619047619</v>
+        <v>18.23809523809524</v>
       </c>
       <c r="D28">
-        <v>1.023557571176618E-06</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
+        <v>6.298815822625325E-07</v>
       </c>
       <c r="G28">
-        <v>0.2503392187814066</v>
+        <v>0.2385783325494254</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>43968</v>
+        <v>43975</v>
       </c>
       <c r="B29">
         <v>18</v>
       </c>
       <c r="C29">
-        <v>16.52380952380953</v>
+        <v>18.47619047619047</v>
       </c>
       <c r="D29">
-        <v>5.511463844797217E-07</v>
+        <v>3.936759889140828E-07</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>0.2236139327815034</v>
+        <v>0.2118724597296548</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>43975</v>
+        <v>43982</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>16.80952380952381</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="D30">
-        <v>4.724111866968993E-07</v>
-      </c>
-      <c r="F30">
-        <v>17</v>
+        <v>3.149407911312721E-07</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
       </c>
       <c r="G30">
-        <v>0.1989708411521291</v>
+        <v>0.1873171441807717</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>43982</v>
+        <v>43989</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="D31">
-        <v>3.149407911312662E-07</v>
-      </c>
-      <c r="E31">
-        <v>18</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G31">
-        <v>0.1762083015595118</v>
+        <v>0.1646379537841358</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>43989</v>
+        <v>43996</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>17.04761904761905</v>
+        <v>18.80952380952381</v>
       </c>
       <c r="D32">
-        <v>7.873519778281656E-08</v>
+        <v>1.574703955656331E-07</v>
       </c>
       <c r="G32">
-        <v>0.1550001293160171</v>
+        <v>0.1434778194876176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>43996</v>
+        <v>44003</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>17.09523809523809</v>
+        <v>18.80952380952381</v>
       </c>
       <c r="D33">
-        <v>7.873519778281656E-08</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.1352520770532219</v>
+        <v>0.1237010595970705</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>44003</v>
+        <v>44010</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>17.09523809523809</v>
+        <v>18.76190476190476</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-7.873519778281656E-08</v>
       </c>
       <c r="G34">
-        <v>0.1171215953157814</v>
+        <v>0.1054128310296472</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44010</v>
+        <v>44017</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>17.04761904761905</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="D35">
-        <v>-7.873519778281656E-08</v>
+        <v>-1.574703955656331E-07</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>0.1004208071730902</v>
+        <v>0.08868785928688672</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44017</v>
+        <v>44024</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>16.90476190476191</v>
+        <v>18.61904761904762</v>
       </c>
       <c r="D36">
-        <v>-2.362055933484497E-07</v>
+        <v>-7.873519778281656E-08</v>
       </c>
       <c r="G36">
-        <v>0.08493642001564163</v>
+        <v>0.07322755336515917</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44024</v>
+        <v>44031</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>16.85714285714286</v>
+        <v>18.61904761904762</v>
       </c>
       <c r="D37">
-        <v>-7.873519778281656E-08</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.07041916385859434</v>
+        <v>0.05872993490772412</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44031</v>
+        <v>44038</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>16.80952380952381</v>
+        <v>19.09523809523809</v>
       </c>
       <c r="D38">
-        <v>-7.873519778281656E-08</v>
-      </c>
-      <c r="F38">
-        <v>13</v>
+        <v>7.873519778281655E-07</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
       </c>
       <c r="G38">
-        <v>0.05633191509179998</v>
+        <v>0.04467398603059707</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44038</v>
+        <v>44045</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>17.23809523809524</v>
+        <v>18.90476190476191</v>
       </c>
       <c r="D39">
-        <v>7.086167800453489E-07</v>
-      </c>
-      <c r="E39">
-        <v>23</v>
+        <v>-3.149407911312662E-07</v>
       </c>
       <c r="G39">
-        <v>0.04258613916057003</v>
+        <v>0.03091770537789148</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44045</v>
+        <v>44052</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>17.14285714285714</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="D40">
-        <v>-1.574703955656331E-07</v>
+        <v>-3.936759889140828E-07</v>
       </c>
       <c r="G40">
-        <v>0.02986607725247881</v>
+        <v>0.01751681538001305</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44052</v>
+        <v>44059</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>16.90476190476191</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="D41">
-        <v>-3.936759889140828E-07</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G41">
-        <v>0.0175443419163832</v>
+        <v>0.004606627855377773</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>16.95238095238095</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="D42">
-        <v>7.873519778281656E-08</v>
+        <v>-7.873519778281656E-08</v>
+      </c>
+      <c r="F42">
+        <v>16</v>
       </c>
       <c r="G42">
-        <v>0.005077986260300747</v>
+        <v>-0.0077587812196656</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>44066</v>
+        <v>44073</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43">
-        <v>16.90476190476191</v>
+        <v>18.80952380952381</v>
       </c>
       <c r="D43">
-        <v>-7.873519778281656E-08</v>
-      </c>
-      <c r="F43">
-        <v>14</v>
+        <v>2.362055933484497E-07</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
       </c>
       <c r="G43">
-        <v>-0.007412226935493445</v>
+        <v>-0.0203407551329168</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44073</v>
+        <v>44080</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>18.80952380952381</v>
       </c>
       <c r="D44">
-        <v>1.574703955656331E-07</v>
-      </c>
-      <c r="E44">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>-0.02050403282965371</v>
+        <v>-0.03312849483489762</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44080</v>
+        <v>44087</v>
       </c>
       <c r="B45">
         <v>15</v>
       </c>
       <c r="C45">
-        <v>17.04761904761905</v>
+        <v>18.76190476190476</v>
       </c>
       <c r="D45">
-        <v>7.873519778281656E-08</v>
+        <v>-7.873519778281656E-08</v>
       </c>
       <c r="G45">
-        <v>-0.03407203075564565</v>
+        <v>-0.0464453119638092</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44087</v>
+        <v>44094</v>
       </c>
       <c r="B46">
         <v>14</v>
       </c>
       <c r="C46">
-        <v>17.04761904761905</v>
+        <v>18.38095238095238</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-6.298815822625383E-07</v>
       </c>
       <c r="G46">
-        <v>-0.04819801628764186</v>
+        <v>-0.06042825390134247</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44094</v>
+        <v>44101</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>16.71428571428572</v>
+        <v>17.80952380952381</v>
       </c>
       <c r="D47">
-        <v>-5.511463844797159E-07</v>
+        <v>-9.448223733937986E-07</v>
       </c>
       <c r="G47">
-        <v>-0.06315122683358994</v>
+        <v>-0.07570693465330061</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="B48">
         <v>13</v>
       </c>
       <c r="C48">
-        <v>16.28571428571428</v>
+        <v>17.09523809523809</v>
       </c>
       <c r="D48">
-        <v>-7.086167800453549E-07</v>
+        <v>-1.181027966742254E-06</v>
       </c>
       <c r="G48">
-        <v>-0.07909101459722917</v>
+        <v>-0.09250363428651148</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44108</v>
+        <v>44115</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>15.71428571428571</v>
+        <v>16.80952380952381</v>
       </c>
       <c r="D49">
-        <v>-9.448223733938016E-07</v>
+        <v>-4.724111866968993E-07</v>
       </c>
       <c r="G49">
-        <v>-0.09647240943380778</v>
+        <v>-0.1109455471535356</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C50">
-        <v>15.47619047619048</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="D50">
-        <v>-3.936759889140828E-07</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G50">
-        <v>-0.1155570838135822</v>
+        <v>-0.1307936758313955</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C51">
-        <v>15.52380952380952</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="D51">
-        <v>7.873519778281656E-08</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>-0.1362532868543855</v>
+        <v>-0.1520533727266641</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44129</v>
+        <v>44136</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C52">
-        <v>15.57142857142857</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="D52">
-        <v>7.873519778281656E-08</v>
+        <v>4.724111866968993E-07</v>
       </c>
       <c r="G52">
-        <v>-0.1583274423105785</v>
+        <v>-0.1748035380411609</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44136</v>
+        <v>44143</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C53">
-        <v>15.80952380952381</v>
+        <v>17.42857142857143</v>
       </c>
       <c r="D53">
-        <v>3.936759889140857E-07</v>
+        <v>4.724111866968993E-07</v>
       </c>
       <c r="G53">
-        <v>-0.18204490263282</v>
+        <v>-0.1991067907037151</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="B54">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C54">
-        <v>16.14285714285714</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="D54">
-        <v>5.511463844797159E-07</v>
+        <v>1.181027966742254E-06</v>
       </c>
       <c r="G54">
-        <v>-0.2078459793624754</v>
+        <v>-0.2253732706879618</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="B55">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C55">
-        <v>16.80952380952381</v>
+        <v>18.95238095238095</v>
       </c>
       <c r="D55">
-        <v>1.102292768959438E-06</v>
+        <v>1.338498362307887E-06</v>
+      </c>
+      <c r="E55">
+        <v>32</v>
       </c>
       <c r="G55">
-        <v>-0.2353812819782503</v>
+        <v>-0.2530061664726596</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44157</v>
+        <v>44164</v>
       </c>
       <c r="B56">
         <v>29</v>
       </c>
       <c r="C56">
-        <v>17.52380952380953</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="D56">
-        <v>1.181027966742254E-06</v>
-      </c>
-      <c r="E56">
-        <v>29</v>
+        <v>1.023557571176621E-06</v>
       </c>
       <c r="G56">
-        <v>-0.2640656738383207</v>
+        <v>-0.2817020204636886</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44164</v>
+        <v>44171</v>
       </c>
       <c r="B57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C57">
-        <v>18.09523809523809</v>
+        <v>19.95238095238095</v>
       </c>
       <c r="D57">
-        <v>9.448223733937986E-07</v>
+        <v>6.298815822625325E-07</v>
+      </c>
+      <c r="F57">
+        <v>23</v>
       </c>
       <c r="G57">
-        <v>-0.2935460891610634</v>
+        <v>-0.3114491107945294</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44171</v>
+        <v>44178</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C58">
-        <v>18.42857142857143</v>
+        <v>20.95238095238095</v>
       </c>
       <c r="D58">
-        <v>5.511463844797159E-07</v>
-      </c>
-      <c r="F58">
-        <v>21</v>
+        <v>1.653439153439154E-06</v>
       </c>
       <c r="G58">
-        <v>-0.3242445634521807</v>
+        <v>-0.342635626690626</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44178</v>
+        <v>44185</v>
       </c>
       <c r="B59">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C59">
-        <v>19.38095238095238</v>
+        <v>21.47619047619047</v>
       </c>
       <c r="D59">
-        <v>1.574703955656337E-06</v>
+        <v>8.66087175610982E-07</v>
       </c>
       <c r="G59">
-        <v>-0.3561757822247754</v>
+        <v>-0.3742416542697808</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44185</v>
+        <v>44192</v>
       </c>
       <c r="B60">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C60">
-        <v>19.85714285714286</v>
+        <v>22.90476190476191</v>
       </c>
       <c r="D60">
-        <v>7.873519778281714E-07</v>
+        <v>2.362055933484508E-06</v>
       </c>
       <c r="G60">
-        <v>-0.3881554614449348</v>
+        <v>-0.4064641731150592</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44192</v>
+        <v>44199</v>
       </c>
       <c r="B61">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C61">
-        <v>21.04761904761905</v>
+        <v>25.42857142857143</v>
       </c>
       <c r="D61">
-        <v>1.96837994457042E-06</v>
+        <v>4.172965482489289E-06</v>
+      </c>
+      <c r="E61">
+        <v>73</v>
       </c>
       <c r="G61">
-        <v>-0.4209157807781281</v>
+        <v>-0.4381722630646658</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44199</v>
+        <v>44206</v>
       </c>
       <c r="B62">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C62">
-        <v>23.42857142857143</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="D62">
-        <v>3.936759889140839E-06</v>
-      </c>
-      <c r="E62">
-        <v>68</v>
+        <v>4.015495086923662E-06</v>
       </c>
       <c r="G62">
-        <v>-0.4531619966563044</v>
+        <v>-0.4676186889033297</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44206</v>
+        <v>44213</v>
       </c>
       <c r="B63">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C63">
-        <v>25.66666666666667</v>
+        <v>29.38095238095238</v>
       </c>
       <c r="D63">
-        <v>3.700554295792396E-06</v>
+        <v>2.519526329050135E-06</v>
       </c>
       <c r="G63">
-        <v>-0.4827397739006468</v>
+        <v>-0.4946397833811882</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44213</v>
+        <v>44220</v>
       </c>
       <c r="B64">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C64">
-        <v>27.04761904761905</v>
+        <v>30.61904761904762</v>
       </c>
       <c r="D64">
-        <v>2.283320735701686E-06</v>
+        <v>2.047115142353242E-06</v>
       </c>
       <c r="G64">
-        <v>-0.5093496890933651</v>
+        <v>-0.5199373964366137</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44220</v>
+        <v>44227</v>
       </c>
       <c r="B65">
         <v>41</v>
       </c>
       <c r="C65">
-        <v>28.19047619047619</v>
+        <v>31.80952380952381</v>
       </c>
       <c r="D65">
-        <v>1.889644746787603E-06</v>
+        <v>1.96837994457042E-06</v>
+      </c>
+      <c r="F65">
+        <v>41</v>
       </c>
       <c r="G65">
-        <v>-0.5339624258167079</v>
+        <v>-0.5435807837313612</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44227</v>
+        <v>44234</v>
       </c>
       <c r="B66">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C66">
-        <v>29.28571428571428</v>
+        <v>33.95238095238095</v>
       </c>
       <c r="D66">
-        <v>1.810909549004786E-06</v>
-      </c>
-      <c r="F66">
-        <v>38</v>
+        <v>3.543083900226751E-06</v>
       </c>
       <c r="G66">
-        <v>-0.557017420574179</v>
+        <v>-0.5658148695704699</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44234</v>
+        <v>44241</v>
       </c>
       <c r="B67">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C67">
-        <v>31.28571428571428</v>
+        <v>36.19047619047619</v>
       </c>
       <c r="D67">
-        <v>3.306878306878307E-06</v>
+        <v>3.700554295792396E-06</v>
       </c>
       <c r="G67">
-        <v>-0.5785694721950306</v>
+        <v>-0.5855803246168183</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44241</v>
+        <v>44248</v>
       </c>
       <c r="B68">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>33.38095238095238</v>
+        <v>38.76190476190476</v>
       </c>
       <c r="D68">
-        <v>3.46434870244394E-06</v>
+        <v>4.251700680272105E-06</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
       </c>
       <c r="G68">
-        <v>-0.5974383360586963</v>
+        <v>-0.602765135392571</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44248</v>
+        <v>44255</v>
       </c>
       <c r="B69">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C69">
-        <v>35.66666666666666</v>
+        <v>40.38095238095238</v>
       </c>
       <c r="D69">
-        <v>3.779289493575206E-06</v>
-      </c>
-      <c r="E69">
-        <v>61</v>
+        <v>2.676996724615775E-06</v>
+      </c>
+      <c r="F69">
+        <v>47</v>
       </c>
       <c r="G69">
-        <v>-0.6134059418370571</v>
+        <v>-0.6169939716918151</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44255</v>
+        <v>44262</v>
       </c>
       <c r="B70">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C70">
-        <v>37.14285714285715</v>
+        <v>42.04761904761905</v>
       </c>
       <c r="D70">
-        <v>2.44079113126733E-06</v>
+        <v>2.755731922398597E-06</v>
+      </c>
+      <c r="E70">
+        <v>49</v>
       </c>
       <c r="G70">
-        <v>-0.6265809967056459</v>
+        <v>-0.629339206676385</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44262</v>
+        <v>44269</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C71">
-        <v>38.61904761904762</v>
+        <v>43.42857142857143</v>
       </c>
       <c r="D71">
-        <v>2.440791131267319E-06</v>
+        <v>2.283320735701686E-06</v>
       </c>
       <c r="G71">
-        <v>-0.637929297219135</v>
+        <v>-0.640057409339982</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44269</v>
+        <v>44276</v>
       </c>
       <c r="B72">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72">
-        <v>39.80952380952381</v>
+        <v>44.57142857142857</v>
       </c>
       <c r="D72">
-        <v>1.96837994457042E-06</v>
+        <v>1.889644746787597E-06</v>
+      </c>
+      <c r="F72">
+        <v>44</v>
       </c>
       <c r="G72">
-        <v>-0.6476944142618941</v>
+        <v>-0.6495242575301395</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>44276</v>
+        <v>44283</v>
       </c>
       <c r="B73">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C73">
-        <v>40.80952380952381</v>
+        <v>45.66666666666666</v>
       </c>
       <c r="D73">
-        <v>1.653439153439154E-06</v>
+        <v>1.810909549004786E-06</v>
+      </c>
+      <c r="E73">
+        <v>45</v>
       </c>
       <c r="G73">
-        <v>-0.6563268209257535</v>
+        <v>-0.6580416320233862</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="B74">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74">
-        <v>41.76190476190476</v>
+        <v>46.57142857142857</v>
       </c>
       <c r="D74">
-        <v>1.574703955656331E-06</v>
+        <v>1.49596875787352E-06</v>
+      </c>
+      <c r="F74">
+        <v>41</v>
       </c>
       <c r="G74">
-        <v>-0.6635183625481101</v>
+        <v>-0.6651892439796295</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="B75">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C75">
-        <v>42.57142857142857</v>
+        <v>47.42857142857143</v>
       </c>
       <c r="D75">
-        <v>1.338498362307887E-06</v>
-      </c>
-      <c r="F75">
-        <v>38</v>
+        <v>1.41723356009071E-06</v>
       </c>
       <c r="G75">
-        <v>-0.6686882439256204</v>
+        <v>-0.6703783699423763</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44297</v>
+        <v>44304</v>
       </c>
       <c r="B76">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>43.28571428571428</v>
+        <v>48.95238095238095</v>
       </c>
       <c r="D76">
-        <v>1.181027966742254E-06</v>
+        <v>2.51952632905013E-06</v>
+      </c>
+      <c r="E76">
+        <v>64</v>
       </c>
       <c r="G76">
-        <v>-0.6721203783369744</v>
+        <v>-0.6738017428593148</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44304</v>
+        <v>44311</v>
       </c>
       <c r="B77">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C77">
-        <v>44.71428571428572</v>
+        <v>49.80952380952381</v>
       </c>
       <c r="D77">
-        <v>2.362055933484508E-06</v>
-      </c>
-      <c r="E77">
-        <v>59</v>
+        <v>1.41723356009071E-06</v>
       </c>
       <c r="G77">
-        <v>-0.6738820159157716</v>
+        <v>-0.6753157071188908</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="B78">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C78">
-        <v>45.57142857142857</v>
+        <v>50.61904761904762</v>
       </c>
       <c r="D78">
-        <v>1.417233560090698E-06</v>
+        <v>1.338498362307887E-06</v>
+      </c>
+      <c r="F78">
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>-0.6741861224190039</v>
+        <v>-0.6755163070266068</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="B79">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C79">
-        <v>46.38095238095238</v>
+        <v>51.23809523809524</v>
       </c>
       <c r="D79">
-        <v>1.338498362307887E-06</v>
-      </c>
-      <c r="F79">
-        <v>38</v>
+        <v>1.023557571176621E-06</v>
       </c>
       <c r="G79">
-        <v>-0.6734640530234153</v>
+        <v>-0.6748185264750751</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="B80">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C80">
-        <v>46.95238095238095</v>
+        <v>53.47619047619047</v>
       </c>
       <c r="D80">
-        <v>9.448223733937986E-07</v>
+        <v>3.700554295792384E-06</v>
+      </c>
+      <c r="E80">
+        <v>83</v>
       </c>
       <c r="G80">
-        <v>-0.6718095044951292</v>
+        <v>-0.6733971799438199</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="B81">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C81">
-        <v>49</v>
+        <v>53.85714285714285</v>
       </c>
       <c r="D81">
-        <v>3.385613504661129E-06</v>
-      </c>
-      <c r="E81">
-        <v>76</v>
+        <v>6.298815822625325E-07</v>
       </c>
       <c r="G81">
-        <v>-0.6690971915511155</v>
+        <v>-0.6710071817415676</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="B82">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C82">
-        <v>49.42857142857143</v>
+        <v>52.52380952380953</v>
       </c>
       <c r="D82">
-        <v>7.086167800453549E-07</v>
+        <v>-2.204585537918863E-06</v>
       </c>
       <c r="G82">
-        <v>-0.6650002513429615</v>
+        <v>-0.6671867052348447</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="B83">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>48.19047619047619</v>
+        <v>51.23809523809524</v>
       </c>
       <c r="D83">
-        <v>-2.047115142353242E-06</v>
+        <v>-2.125850340136053E-06</v>
       </c>
       <c r="G83">
-        <v>-0.6594283343350279</v>
+        <v>-0.6614583709364396</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="B84">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C84">
-        <v>47</v>
+        <v>50.76190476190476</v>
       </c>
       <c r="D84">
-        <v>-1.96837994457042E-06</v>
+        <v>-7.873519778281773E-07</v>
+      </c>
+      <c r="F84">
+        <v>38</v>
       </c>
       <c r="G84">
-        <v>-0.6525034732554635</v>
+        <v>-0.6542957948760298</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="B85">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>46.61904761904762</v>
+        <v>50.66666666666666</v>
       </c>
       <c r="D85">
-        <v>-6.298815822625325E-07</v>
-      </c>
-      <c r="F85">
-        <v>35</v>
+        <v>-1.574703955656331E-07</v>
+      </c>
+      <c r="E85">
+        <v>43</v>
       </c>
       <c r="G85">
-        <v>-0.6445747240751922</v>
+        <v>-0.6460498985500481</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44367</v>
+        <v>44374</v>
       </c>
       <c r="B86">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C86">
-        <v>46.57142857142857</v>
+        <v>50.23809523809524</v>
       </c>
       <c r="D86">
-        <v>-7.873519778282242E-08</v>
-      </c>
-      <c r="E86">
-        <v>40</v>
+        <v>-7.086167800453431E-07</v>
       </c>
       <c r="G86">
-        <v>-0.6351172963609791</v>
+        <v>-0.6361104190236843</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44374</v>
+        <v>44381</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C87">
-        <v>46.19047619047619</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="D87">
-        <v>-6.298815822625325E-07</v>
+        <v>-2.598261526832964E-06</v>
+      </c>
+      <c r="F87">
+        <v>27</v>
       </c>
       <c r="G87">
-        <v>-0.6237856918114589</v>
+        <v>-0.6239704215517735</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44381</v>
+        <v>44388</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C88">
-        <v>44.71428571428572</v>
+        <v>47.09523809523809</v>
       </c>
       <c r="D88">
-        <v>-2.440791131267319E-06</v>
+        <v>-2.598261526832952E-06</v>
       </c>
       <c r="G88">
-        <v>-0.6108944614437669</v>
+        <v>-0.609929892536655</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44388</v>
+        <v>44395</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C89">
-        <v>43.19047619047619</v>
+        <v>45.42857142857143</v>
       </c>
       <c r="D89">
-        <v>-2.519526329050141E-06</v>
+        <v>-2.755731922398585E-06</v>
       </c>
       <c r="G89">
-        <v>-0.5967643394578118</v>
+        <v>-0.595033714499994</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44395</v>
+        <v>44402</v>
       </c>
       <c r="B90">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C90">
-        <v>41.66666666666666</v>
+        <v>45.04761904761905</v>
       </c>
       <c r="D90">
-        <v>-2.519526329050141E-06</v>
+        <v>-6.298815822625325E-07</v>
+      </c>
+      <c r="E90">
+        <v>39</v>
       </c>
       <c r="G90">
-        <v>-0.5821324180627094</v>
+        <v>-0.5798720451760413</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44402</v>
+        <v>44409</v>
       </c>
       <c r="B91">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C91">
-        <v>41.23809523809524</v>
+        <v>44.23809523809524</v>
       </c>
       <c r="D91">
-        <v>-7.086167800453431E-07</v>
-      </c>
-      <c r="E91">
-        <v>35</v>
+        <v>-1.338498362307887E-06</v>
+      </c>
+      <c r="F91">
+        <v>32</v>
       </c>
       <c r="G91">
-        <v>-0.5666642366907909</v>
+        <v>-0.5633294530953953</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44409</v>
+        <v>44416</v>
       </c>
       <c r="B92">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C92">
-        <v>40.57142857142857</v>
+        <v>43.76190476190476</v>
       </c>
       <c r="D92">
-        <v>-1.102292768959443E-06</v>
-      </c>
-      <c r="F92">
-        <v>30</v>
+        <v>-7.873519778281773E-07</v>
+      </c>
+      <c r="E92">
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>-0.5504405150698575</v>
+        <v>-0.5459438814570731</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44416</v>
+        <v>44423</v>
       </c>
       <c r="B93">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>40.19047619047619</v>
+        <v>43.23809523809524</v>
       </c>
       <c r="D93">
-        <v>-6.298815822625325E-07</v>
-      </c>
-      <c r="E93">
-        <v>35</v>
+        <v>-8.660871756109762E-07</v>
+      </c>
+      <c r="F93">
+        <v>33</v>
       </c>
       <c r="G93">
-        <v>-0.5335864426065673</v>
+        <v>-0.527692482113385</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44423</v>
+        <v>44430</v>
       </c>
       <c r="B94">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>39.76190476190476</v>
+        <v>42.71428571428572</v>
       </c>
       <c r="D94">
-        <v>-7.086167800453549E-07</v>
+        <v>-8.66087175610988E-07</v>
+      </c>
+      <c r="E94">
+        <v>34</v>
       </c>
       <c r="G94">
-        <v>-0.5157696761122321</v>
+        <v>-0.5084585142065869</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44430</v>
+        <v>44437</v>
       </c>
       <c r="B95">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C95">
-        <v>39.33333333333334</v>
+        <v>42.14285714285715</v>
       </c>
       <c r="D95">
-        <v>-7.086167800453431E-07</v>
+        <v>-9.448223733937986E-07</v>
+      </c>
+      <c r="F95">
+        <v>29</v>
       </c>
       <c r="G95">
-        <v>-0.4972975401821407</v>
+        <v>-0.4884993422993403</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44437</v>
+        <v>44444</v>
       </c>
       <c r="B96">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C96">
-        <v>38.80952380952381</v>
+        <v>41.57142857142857</v>
       </c>
       <c r="D96">
-        <v>-8.66087175610988E-07</v>
-      </c>
-      <c r="F96">
-        <v>27</v>
+        <v>-9.448223733938104E-07</v>
+      </c>
+      <c r="E96">
+        <v>36</v>
       </c>
       <c r="G96">
-        <v>-0.4786422187666384</v>
+        <v>-0.4684683680214135</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44444</v>
+        <v>44451</v>
       </c>
       <c r="B97">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C97">
-        <v>38.28571428571428</v>
+        <v>39.90476190476191</v>
       </c>
       <c r="D97">
-        <v>-8.66087175610988E-07</v>
-      </c>
-      <c r="E97">
-        <v>32</v>
+        <v>-2.755731922398585E-06</v>
+      </c>
+      <c r="F97">
+        <v>29</v>
       </c>
       <c r="G97">
-        <v>-0.460154930538841</v>
+        <v>-0.4488445156760121</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44451</v>
+        <v>44458</v>
       </c>
       <c r="B98">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C98">
-        <v>36.76190476190476</v>
+        <v>39.23809523809524</v>
       </c>
       <c r="D98">
-        <v>-2.519526329050141E-06</v>
-      </c>
-      <c r="F98">
-        <v>27</v>
+        <v>-1.102292768959432E-06</v>
+      </c>
+      <c r="E98">
+        <v>33</v>
       </c>
       <c r="G98">
-        <v>-0.4423546292106441</v>
+        <v>-0.4312127462258415</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>44458</v>
+        <v>44465</v>
       </c>
       <c r="B99">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C99">
-        <v>36.14285714285715</v>
+        <v>38.71428571428572</v>
       </c>
       <c r="D99">
-        <v>-1.023557571176609E-06</v>
-      </c>
-      <c r="E99">
-        <v>31</v>
+        <v>-8.66087175610988E-07</v>
+      </c>
+      <c r="F99">
+        <v>29</v>
       </c>
       <c r="G99">
-        <v>-0.4260102991148528</v>
+        <v>-0.414393830966964</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="B100">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C100">
-        <v>35.61904761904762</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="D100">
-        <v>-8.66087175610988E-07</v>
-      </c>
-      <c r="F100">
-        <v>27</v>
+        <v>-1.023557571176621E-06</v>
       </c>
       <c r="G100">
-        <v>-0.409898084465118</v>
+        <v>-0.3977313760689499</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>44472</v>
+        <v>44479</v>
       </c>
       <c r="B101">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C101">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101">
-        <v>-1.023557571176621E-06</v>
+        <v>-3.46434870244394E-06</v>
       </c>
       <c r="G101">
-        <v>-0.3940828219004118</v>
+        <v>-0.3812613637222416</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>44479</v>
+        <v>44486</v>
       </c>
       <c r="B102">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C102">
-        <v>33.04761904761905</v>
+        <v>35.38095238095238</v>
       </c>
       <c r="D102">
-        <v>-3.228143109095484E-06</v>
+        <v>-1.023557571176621E-06</v>
+      </c>
+      <c r="E102">
+        <v>47</v>
       </c>
       <c r="G102">
-        <v>-0.3789393610524168</v>
+        <v>-0.3674338931250087</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>44486</v>
+        <v>44493</v>
       </c>
       <c r="B103">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C103">
-        <v>32.47619047619047</v>
+        <v>34.80952380952381</v>
       </c>
       <c r="D103">
-        <v>-9.448223733938104E-07</v>
-      </c>
-      <c r="E103">
-        <v>43</v>
+        <v>-9.448223733937986E-07</v>
       </c>
       <c r="G103">
-        <v>-0.366546583209676</v>
+        <v>-0.3547696368739873</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>44493</v>
+        <v>44500</v>
       </c>
       <c r="B104">
         <v>31</v>
       </c>
       <c r="C104">
-        <v>31.95238095238095</v>
+        <v>34.19047619047619</v>
       </c>
       <c r="D104">
-        <v>-8.66087175610982E-07</v>
+        <v>-1.023557571176621E-06</v>
+      </c>
+      <c r="F104">
+        <v>31</v>
       </c>
       <c r="G104">
-        <v>-0.3555226225416402</v>
+        <v>-0.3435039155242007</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="B105">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C105">
-        <v>31.33333333333333</v>
+        <v>34.09523809523809</v>
       </c>
       <c r="D105">
-        <v>-1.023557571176621E-06</v>
-      </c>
-      <c r="F105">
-        <v>27</v>
+        <v>-1.574703955656331E-07</v>
       </c>
       <c r="G105">
-        <v>-0.3452806086655821</v>
+        <v>-0.3332523064053884</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B106">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C106">
-        <v>31.28571428571428</v>
+        <v>33.80952380952381</v>
       </c>
       <c r="D106">
-        <v>-7.873519778281656E-08</v>
+        <v>-4.724111866968993E-07</v>
+      </c>
+      <c r="E106">
+        <v>37</v>
       </c>
       <c r="G106">
-        <v>-0.3358075291821467</v>
+        <v>-0.3229730339186515</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>44514</v>
+        <v>44521</v>
       </c>
       <c r="B107">
         <v>34</v>
       </c>
       <c r="C107">
-        <v>31</v>
+        <v>33.90476190476191</v>
       </c>
       <c r="D107">
-        <v>-4.724111866968993E-07</v>
+        <v>1.574703955656331E-07</v>
+      </c>
+      <c r="F107">
+        <v>34</v>
       </c>
       <c r="G107">
-        <v>-0.3267484731303873</v>
+        <v>-0.3134550400526921</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>44521</v>
+        <v>44528</v>
       </c>
       <c r="B108">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C108">
-        <v>31.09523809523809</v>
+        <v>34.38095238095238</v>
       </c>
       <c r="D108">
-        <v>1.574703955656331E-07</v>
-      </c>
-      <c r="F108">
-        <v>32</v>
+        <v>7.873519778281655E-07</v>
       </c>
       <c r="G108">
-        <v>-0.3189845938289508</v>
+        <v>-0.3047082354918685</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>44528</v>
+        <v>44535</v>
       </c>
       <c r="B109">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C109">
-        <v>31.52380952380953</v>
+        <v>34.95238095238095</v>
       </c>
       <c r="D109">
-        <v>7.086167800453549E-07</v>
+        <v>9.448223733937986E-07</v>
+      </c>
+      <c r="E109">
+        <v>40</v>
       </c>
       <c r="G109">
-        <v>-0.3126154452052843</v>
+        <v>-0.2967073107803561</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>44535</v>
+        <v>44542</v>
       </c>
       <c r="B110">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110">
-        <v>32.04761904761905</v>
+        <v>35.09523809523809</v>
       </c>
       <c r="D110">
-        <v>8.66087175610988E-07</v>
-      </c>
-      <c r="E110">
-        <v>36</v>
+        <v>2.362055933484555E-07</v>
       </c>
       <c r="G110">
-        <v>-0.3065823821313376</v>
+        <v>-0.2894280419806561</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="B111">
         <v>33</v>
       </c>
       <c r="C111">
-        <v>32.23809523809524</v>
+        <v>34.80952380952381</v>
       </c>
       <c r="D111">
-        <v>3.149407911312662E-07</v>
+        <v>-4.724111866968993E-07</v>
       </c>
       <c r="G111">
-        <v>-0.3002114739236978</v>
+        <v>-0.2823959881977866</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="B112">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C112">
-        <v>32</v>
+        <v>34.85714285714285</v>
       </c>
       <c r="D112">
-        <v>-3.936759889140886E-07</v>
+        <v>7.873519778281068E-08</v>
       </c>
       <c r="G112">
-        <v>-0.2944287546467833</v>
+        <v>-0.2764379155176793</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>44556</v>
+        <v>44563</v>
       </c>
       <c r="B113">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C113">
-        <v>31.95238095238095</v>
+        <v>35.09523809523809</v>
       </c>
       <c r="D113">
-        <v>-7.873519778281656E-08</v>
-      </c>
-      <c r="F113">
-        <v>29</v>
+        <v>3.936759889140886E-07</v>
+      </c>
+      <c r="E113">
+        <v>43</v>
       </c>
       <c r="G113">
-        <v>-0.2894347264554237</v>
+        <v>-0.2706118186085048</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>44563</v>
+        <v>44570</v>
       </c>
       <c r="B114">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C114">
-        <v>32.19047619047619</v>
+        <v>35.52380952380953</v>
       </c>
       <c r="D114">
-        <v>3.936759889140828E-07</v>
-      </c>
-      <c r="E114">
-        <v>40</v>
+        <v>7.086167800453549E-07</v>
+      </c>
+      <c r="F114">
+        <v>42</v>
       </c>
       <c r="G114">
-        <v>-0.2861967206141829</v>
+        <v>-0.2653172502046529</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>44570</v>
+        <v>44577</v>
       </c>
       <c r="B115">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C115">
-        <v>32.52380952380953</v>
+        <v>36</v>
       </c>
       <c r="D115">
-        <v>5.511463844797217E-07</v>
-      </c>
-      <c r="F115">
-        <v>38</v>
+        <v>7.873519778281655E-07</v>
       </c>
       <c r="G115">
-        <v>-0.2834942703732168</v>
+        <v>-0.2614755503675576</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>44577</v>
+        <v>44584</v>
       </c>
       <c r="B116">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C116">
-        <v>32.95238095238095</v>
+        <v>37.04761904761905</v>
       </c>
       <c r="D116">
-        <v>7.086167800453431E-07</v>
+        <v>1.732174351221976E-06</v>
+      </c>
+      <c r="E116">
+        <v>51</v>
       </c>
       <c r="G116">
-        <v>-0.2810217736370234</v>
+        <v>-0.2580123417319475</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>44584</v>
+        <v>44591</v>
       </c>
       <c r="B117">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C117">
-        <v>34.14285714285715</v>
+        <v>37.28571428571428</v>
       </c>
       <c r="D117">
-        <v>1.968379944570432E-06</v>
-      </c>
-      <c r="E117">
-        <v>52</v>
+        <v>3.936759889140769E-07</v>
       </c>
       <c r="G117">
-        <v>-0.2784261785515643</v>
+        <v>-0.2536474933088313</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>44591</v>
+        <v>44598</v>
       </c>
       <c r="B118">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C118">
-        <v>34.42857142857143</v>
+        <v>37.80952380952381</v>
       </c>
       <c r="D118">
-        <v>4.724111866968993E-07</v>
+        <v>8.66087175610988E-07</v>
       </c>
       <c r="G118">
-        <v>-0.2743195317025833</v>
+        <v>-0.2489220291581967</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>44598</v>
+        <v>44605</v>
       </c>
       <c r="B119">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C119">
-        <v>34.95238095238095</v>
+        <v>37.90476190476191</v>
       </c>
       <c r="D119">
-        <v>8.660871756109762E-07</v>
+        <v>1.574703955656331E-07</v>
+      </c>
+      <c r="F119">
+        <v>35</v>
       </c>
       <c r="G119">
-        <v>-0.2694513379958587</v>
+        <v>-0.2430143365033336</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>44605</v>
+        <v>44612</v>
       </c>
       <c r="B120">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C120">
-        <v>35</v>
+        <v>38.71428571428572</v>
       </c>
       <c r="D120">
-        <v>7.873519778282242E-08</v>
-      </c>
-      <c r="F120">
-        <v>32</v>
+        <v>1.338498362307887E-06</v>
+      </c>
+      <c r="E120">
+        <v>46</v>
       </c>
       <c r="G120">
-        <v>-0.2638672274013372</v>
+        <v>-0.2367309851371682</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>44612</v>
+        <v>44619</v>
       </c>
       <c r="B121">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C121">
-        <v>35.66666666666666</v>
+        <v>39.04761904761905</v>
       </c>
       <c r="D121">
-        <v>1.102292768959432E-06</v>
-      </c>
-      <c r="E121">
-        <v>41</v>
+        <v>5.511463844797217E-07</v>
       </c>
       <c r="G121">
-        <v>-0.2579524658073516</v>
+        <v>-0.2294338428468438</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>44619</v>
+        <v>44626</v>
       </c>
       <c r="B122">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C122">
-        <v>36.04761904761905</v>
+        <v>38.90476190476191</v>
       </c>
       <c r="D122">
-        <v>6.298815822625441E-07</v>
+        <v>-2.362055933484555E-07</v>
       </c>
       <c r="G122">
-        <v>-0.2504633391374977</v>
+        <v>-0.2210244803608512</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>44626</v>
+        <v>44633</v>
       </c>
       <c r="B123">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C123">
-        <v>35.95238095238095</v>
+        <v>38.14285714285715</v>
       </c>
       <c r="D123">
-        <v>-1.574703955656448E-07</v>
+        <v>-1.259763164525065E-06</v>
+      </c>
+      <c r="F123">
+        <v>31</v>
       </c>
       <c r="G123">
-        <v>-0.2414241180830159</v>
+        <v>-0.2114097850999509</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>44633</v>
+        <v>44640</v>
       </c>
       <c r="B124">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C124">
-        <v>35.33333333333334</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="D124">
-        <v>-1.023557571176609E-06</v>
+        <v>-7.873519778282242E-08</v>
       </c>
       <c r="G124">
-        <v>-0.2315074852962168</v>
+        <v>-0.2014876474959928</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>44640</v>
+        <v>44647</v>
       </c>
       <c r="B125">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C125">
-        <v>35.19047619047619</v>
+        <v>38.38095238095238</v>
       </c>
       <c r="D125">
-        <v>-2.362055933484555E-07</v>
-      </c>
-      <c r="F125">
-        <v>28</v>
+        <v>4.724111866968993E-07</v>
+      </c>
+      <c r="E125">
+        <v>37</v>
       </c>
       <c r="G125">
-        <v>-0.2211048529427912</v>
+        <v>-0.1904467441821929</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>44647</v>
+        <v>44654</v>
       </c>
       <c r="B126">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C126">
-        <v>35.52380952380953</v>
+        <v>38.04761904761905</v>
       </c>
       <c r="D126">
-        <v>5.511463844797217E-07</v>
-      </c>
-      <c r="E126">
-        <v>34</v>
+        <v>-5.511463844797099E-07</v>
+      </c>
+      <c r="F126">
+        <v>29</v>
       </c>
       <c r="G126">
-        <v>-0.2095654861792423</v>
+        <v>-0.1779082520851908</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>44654</v>
+        <v>44661</v>
       </c>
       <c r="B127">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C127">
-        <v>35.19047619047619</v>
+        <v>37.76190476190476</v>
       </c>
       <c r="D127">
-        <v>-5.511463844797217E-07</v>
-      </c>
-      <c r="F127">
-        <v>27</v>
+        <v>-4.724111866969111E-07</v>
+      </c>
+      <c r="E127">
+        <v>31</v>
       </c>
       <c r="G127">
-        <v>-0.1959487945434607</v>
+        <v>-0.1640352804387325</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>44661</v>
+        <v>44668</v>
       </c>
       <c r="B128">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C128">
-        <v>34.90476190476191</v>
+        <v>37.52380952380953</v>
       </c>
       <c r="D128">
-        <v>-4.724111866968993E-07</v>
-      </c>
-      <c r="E128">
-        <v>28</v>
+        <v>-3.936759889140769E-07</v>
+      </c>
+      <c r="F128">
+        <v>29</v>
       </c>
       <c r="G128">
-        <v>-0.1806372713473548</v>
+        <v>-0.1485471554508888</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>44668</v>
+        <v>44675</v>
       </c>
       <c r="B129">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C129">
-        <v>34.61904761904762</v>
+        <v>37.19047619047619</v>
       </c>
       <c r="D129">
-        <v>-4.724111866968993E-07</v>
-      </c>
-      <c r="F129">
-        <v>26</v>
+        <v>-5.511463844797217E-07</v>
       </c>
       <c r="G129">
-        <v>-0.1635677158372851</v>
+        <v>-0.1311040936493577</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="B130">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C130">
-        <v>34.28571428571428</v>
+        <v>36.85714285714285</v>
       </c>
       <c r="D130">
         <v>-5.511463844797217E-07</v>
       </c>
       <c r="G130">
-        <v>-0.1436197399103436</v>
+        <v>-0.1116204993524544</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>44682</v>
+        <v>44689</v>
       </c>
       <c r="B131">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C131">
-        <v>33.95238095238095</v>
+        <v>38.57142857142857</v>
       </c>
       <c r="D131">
-        <v>-5.511463844797217E-07</v>
+        <v>2.834467120181408E-06</v>
+      </c>
+      <c r="E131">
+        <v>71</v>
       </c>
       <c r="G131">
-        <v>-0.1218307437356367</v>
+        <v>-0.08919512481544815</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>44689</v>
+        <v>44696</v>
       </c>
       <c r="B132">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C132">
-        <v>35.33333333333334</v>
+        <v>38.90476190476191</v>
       </c>
       <c r="D132">
-        <v>2.283320735701698E-06</v>
-      </c>
-      <c r="E132">
-        <v>62</v>
+        <v>5.511463844797217E-07</v>
       </c>
       <c r="G132">
-        <v>-0.09843020264792983</v>
+        <v>-0.0622992182434264</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="B133">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C133">
-        <v>35.61904761904762</v>
+        <v>38.95238095238095</v>
       </c>
       <c r="D133">
-        <v>4.724111866968993E-07</v>
+        <v>7.873519778281068E-08</v>
       </c>
       <c r="G133">
-        <v>-0.07048102748894251</v>
+        <v>-0.03283908998583052</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>44703</v>
+        <v>44710</v>
       </c>
       <c r="B134">
         <v>32</v>
       </c>
       <c r="C134">
-        <v>35.76190476190476</v>
+        <v>38.42857142857143</v>
       </c>
       <c r="D134">
-        <v>2.362055933484438E-07</v>
+        <v>-8.660871756109762E-07</v>
       </c>
       <c r="G134">
-        <v>-0.03949703668086899</v>
+        <v>-0.0009446919149051998</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>44710</v>
+        <v>44717</v>
       </c>
       <c r="B135">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C135">
-        <v>35.23809523809524</v>
+        <v>37.85714285714285</v>
       </c>
       <c r="D135">
-        <v>-8.660871756109762E-07</v>
+        <v>-9.448223733938104E-07</v>
+      </c>
+      <c r="F135">
+        <v>30</v>
       </c>
       <c r="G135">
-        <v>-0.004689975744025097</v>
+        <v>0.03311169051597643</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>44717</v>
+        <v>44724</v>
       </c>
       <c r="B136">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C136">
-        <v>34.71428571428572</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="D136">
-        <v>-8.66087175610988E-07</v>
-      </c>
-      <c r="F136">
-        <v>27</v>
+        <v>2.362055933484508E-06</v>
+      </c>
+      <c r="E136">
+        <v>74</v>
       </c>
       <c r="G136">
-        <v>0.03161358762390352</v>
+        <v>0.06973491319366067</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>44724</v>
+        <v>44731</v>
       </c>
       <c r="B137">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C137">
-        <v>36.09523809523809</v>
+        <v>39.52380952380953</v>
       </c>
       <c r="D137">
-        <v>2.283320735701686E-06</v>
-      </c>
-      <c r="E137">
-        <v>69</v>
+        <v>3.936759889140886E-07</v>
       </c>
       <c r="G137">
-        <v>0.06950216370669954</v>
+        <v>0.1108640995305847</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>44731</v>
+        <v>44738</v>
       </c>
       <c r="B138">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C138">
-        <v>36.09523809523809</v>
+        <v>39.52380952380953</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0.1120623383975401</v>
+        <v>0.154838706791475</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>44738</v>
+        <v>44745</v>
       </c>
       <c r="B139">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C139">
-        <v>36.19047619047619</v>
+        <v>39.33333333333334</v>
       </c>
       <c r="D139">
-        <v>1.574703955656331E-07</v>
+        <v>-3.149407911312662E-07</v>
       </c>
       <c r="G139">
-        <v>0.1570512801744881</v>
+        <v>0.2012443817242495</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>44745</v>
+        <v>44752</v>
       </c>
       <c r="B140">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C140">
-        <v>36.04761904761905</v>
+        <v>39.19047619047619</v>
       </c>
       <c r="D140">
-        <v>-2.362055933484438E-07</v>
+        <v>-2.362055933484555E-07</v>
+      </c>
+      <c r="F140">
+        <v>32</v>
       </c>
       <c r="G140">
-        <v>0.2041514351374309</v>
+        <v>0.24922467652035</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>44752</v>
+        <v>44759</v>
       </c>
       <c r="B141">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C141">
-        <v>35.95238095238095</v>
+        <v>38.76190476190476</v>
       </c>
       <c r="D141">
-        <v>-1.574703955656448E-07</v>
-      </c>
-      <c r="F141">
-        <v>30</v>
+        <v>-7.086167800453549E-07</v>
+      </c>
+      <c r="E141">
+        <v>37</v>
       </c>
       <c r="G141">
-        <v>0.2533472302624455</v>
+        <v>0.298853898174954</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>44759</v>
+        <v>44766</v>
       </c>
       <c r="B142">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C142">
-        <v>35.71428571428572</v>
+        <v>38.19047619047619</v>
       </c>
       <c r="D142">
-        <v>-3.936759889140769E-07</v>
-      </c>
-      <c r="E142">
-        <v>36</v>
+        <v>-9.448223733937986E-07</v>
       </c>
       <c r="G142">
-        <v>0.3045250100274021</v>
+        <v>0.3500888570571576</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>44766</v>
+        <v>44773</v>
       </c>
       <c r="B143">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C143">
-        <v>35.23809523809524</v>
+        <v>37.85714285714285</v>
       </c>
       <c r="D143">
-        <v>-7.873519778281655E-07</v>
+        <v>-5.511463844797217E-07</v>
       </c>
       <c r="G143">
-        <v>0.3565552297363067</v>
+        <v>0.4018332961299586</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>44773</v>
+        <v>44780</v>
       </c>
       <c r="B144">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C144">
-        <v>34.95238095238095</v>
+        <v>37.76190476190476</v>
       </c>
       <c r="D144">
-        <v>-4.724111866969111E-07</v>
-      </c>
-      <c r="F144">
-        <v>27</v>
+        <v>-1.574703955656331E-07</v>
       </c>
       <c r="G144">
-        <v>0.4085230048265227</v>
+        <v>0.4533724205248405</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>44780</v>
+        <v>44787</v>
       </c>
       <c r="B145">
         <v>28</v>
       </c>
       <c r="C145">
-        <v>34.85714285714285</v>
+        <v>37.57142857142857</v>
       </c>
       <c r="D145">
-        <v>-1.574703955656331E-07</v>
-      </c>
-      <c r="E145">
-        <v>28</v>
+        <v>-3.149407911312662E-07</v>
       </c>
       <c r="G145">
-        <v>0.4607035124176168</v>
+        <v>0.5051134454335857</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>44787</v>
+        <v>44794</v>
       </c>
       <c r="B146">
         <v>27</v>
       </c>
       <c r="C146">
-        <v>34.80952380952381</v>
+        <v>37.09523809523809</v>
       </c>
       <c r="D146">
-        <v>-7.873519778281068E-08</v>
+        <v>-7.873519778281655E-07</v>
       </c>
       <c r="G146">
-        <v>0.5136321624437427</v>
+        <v>0.5571382768714017</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>44794</v>
+        <v>44801</v>
       </c>
       <c r="B147">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C147">
-        <v>34.38095238095238</v>
+        <v>36.95238095238095</v>
       </c>
       <c r="D147">
-        <v>-7.086167800453549E-07</v>
+        <v>-2.362055933484555E-07</v>
+      </c>
+      <c r="F147">
+        <v>26</v>
       </c>
       <c r="G147">
-        <v>0.5668021207285933</v>
+        <v>0.6088258608020533</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B148">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C148">
-        <v>34.28571428571428</v>
+        <v>36.80952380952381</v>
       </c>
       <c r="D148">
-        <v>-1.574703955656331E-07</v>
+        <v>-2.362055933484438E-07</v>
       </c>
       <c r="G148">
-        <v>0.6182568262856992</v>
+        <v>0.6590371314937379</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>44808</v>
+        <v>44815</v>
       </c>
       <c r="B149">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C149">
-        <v>34.14285714285715</v>
+        <v>36.80952380952381</v>
       </c>
       <c r="D149">
-        <v>-2.362055933484438E-07</v>
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>29</v>
       </c>
       <c r="G149">
-        <v>0.6673364732954283</v>
+        <v>0.7067488997940736</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>44815</v>
+        <v>44822</v>
       </c>
       <c r="B150">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C150">
-        <v>34.09523809523809</v>
+        <v>36.71428571428572</v>
       </c>
       <c r="D150">
-        <v>-7.873519778282242E-08</v>
+        <v>-1.574703955656331E-07</v>
       </c>
       <c r="G150">
-        <v>0.7140793321485848</v>
+        <v>0.7517629487219205</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>44822</v>
+        <v>44829</v>
       </c>
       <c r="B151">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C151">
-        <v>34.04761904761905</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="D151">
-        <v>-7.873519778281068E-08</v>
-      </c>
-      <c r="E151">
-        <v>26</v>
+        <v>-6.298815822625325E-07</v>
       </c>
       <c r="G151">
-        <v>0.7585621502031373</v>
+        <v>0.7944737061618883</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>44829</v>
+        <v>44836</v>
       </c>
       <c r="B152">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C152">
-        <v>33.76190476190476</v>
+        <v>34</v>
       </c>
       <c r="D152">
-        <v>-4.724111866969111E-07</v>
+        <v>-3.858024691358029E-06</v>
+      </c>
+      <c r="F152">
+        <v>22</v>
       </c>
       <c r="G152">
-        <v>0.800487642923567</v>
+        <v>0.8339622561718323</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>44836</v>
+        <v>44843</v>
       </c>
       <c r="B153">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C153">
-        <v>31.76190476190476</v>
+        <v>33.19047619047619</v>
       </c>
       <c r="D153">
-        <v>-3.306878306878301E-06</v>
+        <v>-1.338498362307887E-06</v>
+      </c>
+      <c r="E153">
+        <v>23</v>
       </c>
       <c r="G153">
-        <v>0.8390519051155096</v>
+        <v>0.8661343450623902</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C154">
-        <v>31</v>
+        <v>32.57142857142857</v>
       </c>
       <c r="D154">
-        <v>-1.259763164525071E-06</v>
+        <v>-1.023557571176621E-06</v>
+      </c>
+      <c r="F154">
+        <v>21</v>
       </c>
       <c r="G154">
-        <v>0.8699978311968192</v>
+        <v>0.8936423189267857</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>44850</v>
+        <v>44857</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C155">
-        <v>30.38095238095238</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="D155">
-        <v>-1.023557571176621E-06</v>
-      </c>
-      <c r="F155">
-        <v>19</v>
+        <v>-7.086167800453431E-07</v>
+      </c>
+      <c r="E155">
+        <v>23</v>
       </c>
       <c r="G155">
-        <v>0.8954099779802172</v>
+        <v>0.916142311252792</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>44857</v>
+        <v>44864</v>
       </c>
       <c r="B156">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>30</v>
+        <v>31.76190476190476</v>
       </c>
       <c r="D156">
-        <v>-6.298815822625325E-07</v>
-      </c>
-      <c r="E156">
-        <v>21</v>
+        <v>-6.298815822625383E-07</v>
+      </c>
+      <c r="F156">
+        <v>22</v>
       </c>
       <c r="G156">
-        <v>0.9160261060740945</v>
+        <v>0.9339815285245842</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>44864</v>
+        <v>44871</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C157">
-        <v>29.66666666666667</v>
+        <v>30.28571428571428</v>
       </c>
       <c r="D157">
-        <v>-5.511463844797159E-07</v>
-      </c>
-      <c r="F157">
-        <v>20</v>
+        <v>-2.440791131267325E-06</v>
+      </c>
+      <c r="E157">
+        <v>43</v>
       </c>
       <c r="G157">
-        <v>0.9327383036358591</v>
+        <v>0.9478298865561626</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>44871</v>
+        <v>44878</v>
       </c>
       <c r="B158">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C158">
-        <v>28.28571428571428</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="D158">
-        <v>-2.283320735701692E-06</v>
-      </c>
-      <c r="E158">
-        <v>40</v>
+        <v>-1.653439153439154E-06</v>
       </c>
       <c r="G158">
-        <v>0.9453668703327009</v>
+        <v>0.9562491861507093</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>44878</v>
+        <v>44885</v>
       </c>
       <c r="B159">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C159">
-        <v>27.38095238095238</v>
+        <v>28.61904761904762</v>
       </c>
       <c r="D159">
-        <v>-1.49596875787352E-06</v>
+        <v>-1.102292768959432E-06</v>
       </c>
       <c r="G159">
-        <v>0.9519075549137552</v>
+        <v>0.959678307623773</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>44885</v>
+        <v>44892</v>
       </c>
       <c r="B160">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>26.66666666666667</v>
+        <v>28</v>
       </c>
       <c r="D160">
-        <v>-1.181027966742248E-06</v>
+        <v>-1.023557571176621E-06</v>
       </c>
       <c r="G160">
-        <v>0.9529054898063999</v>
+        <v>0.9582275222826134</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>44892</v>
+        <v>44899</v>
       </c>
       <c r="B161">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>26</v>
+        <v>27.52380952380953</v>
       </c>
       <c r="D161">
-        <v>-1.102292768959438E-06</v>
+        <v>-7.873519778281655E-07</v>
+      </c>
+      <c r="F161">
+        <v>22</v>
       </c>
       <c r="G161">
-        <v>0.9493963735238669</v>
+        <v>0.9523708505789332</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="B162">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C162">
-        <v>25.52380952380953</v>
+        <v>26.90476190476191</v>
       </c>
       <c r="D162">
-        <v>-7.873519778281655E-07</v>
-      </c>
-      <c r="F162">
-        <v>20</v>
+        <v>-1.023557571176621E-06</v>
+      </c>
+      <c r="E162">
+        <v>24</v>
       </c>
       <c r="G162">
-        <v>0.9415656865592457</v>
+        <v>0.9427472317420063</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>44906</v>
+        <v>44913</v>
       </c>
       <c r="B163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C163">
-        <v>24.80952380952381</v>
+        <v>26.47619047619047</v>
       </c>
       <c r="D163">
-        <v>-1.181027966742254E-06</v>
-      </c>
-      <c r="E163">
-        <v>21</v>
+        <v>-7.086167800453549E-07</v>
       </c>
       <c r="G163">
-        <v>0.9299276022361821</v>
+        <v>0.9293370792934283</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>44913</v>
+        <v>44920</v>
       </c>
       <c r="B164">
         <v>20</v>
       </c>
       <c r="C164">
-        <v>24.33333333333333</v>
+        <v>26.04761904761905</v>
       </c>
       <c r="D164">
-        <v>-7.873519778281714E-07</v>
+        <v>-7.086167800453489E-07</v>
       </c>
       <c r="G164">
-        <v>0.9149701385066404</v>
+        <v>0.9128873785640892</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>44920</v>
+        <v>44927</v>
       </c>
       <c r="B165">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C165">
-        <v>23.90476190476191</v>
+        <v>25.61904761904762</v>
       </c>
       <c r="D165">
         <v>-7.086167800453489E-07</v>
       </c>
       <c r="G165">
-        <v>0.8962380620480276</v>
+        <v>0.8931473241734235</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>44927</v>
+        <v>44934</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C166">
-        <v>23.42857142857143</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="D166">
-        <v>-7.873519778281714E-07</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G166">
-        <v>0.8739887198741753</v>
+        <v>0.8694565458735972</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>44934</v>
+        <v>44941</v>
       </c>
       <c r="B167">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C167">
-        <v>23.38095238095238</v>
+        <v>25.90476190476191</v>
       </c>
       <c r="D167">
-        <v>-7.873519778281656E-08</v>
+        <v>3.936759889140828E-07</v>
+      </c>
+      <c r="E167">
+        <v>32</v>
       </c>
       <c r="G167">
-        <v>0.8479795302205966</v>
+        <v>0.8421911074627093</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>44941</v>
+        <v>44948</v>
       </c>
       <c r="B168">
         <v>29</v>
       </c>
       <c r="C168">
-        <v>23.57142857142857</v>
+        <v>26.04761904761905</v>
       </c>
       <c r="D168">
-        <v>3.149407911312721E-07</v>
-      </c>
-      <c r="E168">
-        <v>29</v>
+        <v>2.362055933484497E-07</v>
       </c>
       <c r="G168">
-        <v>0.8187745092545382</v>
+        <v>0.8118467118392734</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>44948</v>
+        <v>44955</v>
       </c>
       <c r="B169">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C169">
-        <v>23.66666666666667</v>
+        <v>26.09523809523809</v>
       </c>
       <c r="D169">
-        <v>1.574703955656331E-07</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G169">
-        <v>0.787183681581794</v>
+        <v>0.779251240552437</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>44955</v>
+        <v>44962</v>
       </c>
       <c r="B170">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C170">
-        <v>23.76190476190476</v>
+        <v>25.90476190476191</v>
       </c>
       <c r="D170">
-        <v>1.574703955656331E-07</v>
+        <v>-3.149407911312662E-07</v>
+      </c>
+      <c r="F170">
+        <v>25</v>
       </c>
       <c r="G170">
-        <v>0.7540625173382236</v>
+        <v>0.7450458808859088</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>44962</v>
+        <v>44969</v>
       </c>
       <c r="B171">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C171">
-        <v>23.61904761904762</v>
+        <v>25.85714285714286</v>
       </c>
       <c r="D171">
-        <v>-2.362055933484497E-07</v>
-      </c>
-      <c r="F171">
-        <v>22</v>
+        <v>-7.873519778281656E-08</v>
+      </c>
+      <c r="E171">
+        <v>27</v>
       </c>
       <c r="G171">
-        <v>0.7197658236713879</v>
+        <v>0.7096342874355168</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>44969</v>
+        <v>44976</v>
       </c>
       <c r="B172">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C172">
-        <v>23.52380952380953</v>
+        <v>25.85714285714286</v>
       </c>
       <c r="D172">
-        <v>-1.574703955656331E-07</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0.6843441491769384</v>
+        <v>0.6732785803976663</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>44976</v>
+        <v>44983</v>
       </c>
       <c r="B173">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C173">
-        <v>23.57142857142857</v>
+        <v>25.85714285714286</v>
       </c>
       <c r="D173">
-        <v>7.873519778281656E-08</v>
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
       </c>
       <c r="G173">
-        <v>0.6480582858995153</v>
+        <v>0.6362317867505531</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>44983</v>
+        <v>44990</v>
       </c>
       <c r="B174">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C174">
-        <v>23.57142857142857</v>
+        <v>25.90476190476191</v>
       </c>
       <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>20</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G174">
-        <v>0.6113286843722852</v>
+        <v>0.5987909195198472</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>44990</v>
+        <v>44997</v>
       </c>
       <c r="B175">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C175">
-        <v>23.66666666666667</v>
+        <v>26.71428571428572</v>
       </c>
       <c r="D175">
-        <v>1.574703955656331E-07</v>
+        <v>1.338498362307887E-06</v>
       </c>
       <c r="G175">
-        <v>0.5747004946823449</v>
+        <v>0.5614801616946175</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>44997</v>
+        <v>45004</v>
       </c>
       <c r="B176">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C176">
-        <v>24.42857142857143</v>
+        <v>27.42857142857143</v>
       </c>
       <c r="D176">
-        <v>1.259763164525065E-06</v>
+        <v>1.181027966742248E-06</v>
       </c>
       <c r="G176">
-        <v>0.5391777717437702</v>
+        <v>0.5257585096852586</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>45004</v>
+        <v>45011</v>
       </c>
       <c r="B177">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C177">
-        <v>25.09523809523809</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="D177">
-        <v>1.102292768959438E-06</v>
+        <v>7.086167800453549E-07</v>
       </c>
       <c r="G177">
-        <v>0.5053281885880699</v>
+        <v>0.4918572096880983</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="B178">
         <v>28</v>
       </c>
       <c r="C178">
-        <v>25.47619047619047</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="D178">
-        <v>6.298815822625325E-07</v>
+        <v>-1.181027966742254E-06</v>
+      </c>
+      <c r="F178">
+        <v>28</v>
       </c>
       <c r="G178">
-        <v>0.4732949114382938</v>
+        <v>0.459639411597547</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>45018</v>
+        <v>45025</v>
       </c>
       <c r="B179">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C179">
-        <v>24.85714285714286</v>
+        <v>27.04761904761905</v>
       </c>
       <c r="D179">
-        <v>-1.023557571176615E-06</v>
-      </c>
-      <c r="F179">
-        <v>27</v>
+        <v>-1.574703955656331E-07</v>
+      </c>
+      <c r="E179">
+        <v>33</v>
       </c>
       <c r="G179">
-        <v>0.4429169243662249</v>
+        <v>0.4281965103915337</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="B180">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C180">
-        <v>24.66666666666667</v>
+        <v>27.09523809523809</v>
       </c>
       <c r="D180">
-        <v>-3.149407911312662E-07</v>
-      </c>
-      <c r="E180">
-        <v>29</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G180">
-        <v>0.4136066583178163</v>
+        <v>0.3984357948113421</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="B181">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C181">
-        <v>24.71428571428572</v>
+        <v>27.28571428571428</v>
       </c>
       <c r="D181">
-        <v>7.873519778281656E-08</v>
+        <v>3.149407911312662E-07</v>
       </c>
       <c r="G181">
-        <v>0.3865115453497667</v>
+        <v>0.3712823637153488</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B182">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C182">
-        <v>24.85714285714286</v>
+        <v>27.42857142857143</v>
       </c>
       <c r="D182">
         <v>2.362055933484497E-07</v>
       </c>
       <c r="G182">
-        <v>0.3623414279165582</v>
+        <v>0.3473542852183277</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>45046</v>
+        <v>45053</v>
       </c>
       <c r="B183">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C183">
-        <v>24.95238095238095</v>
+        <v>27.47619047619047</v>
       </c>
       <c r="D183">
-        <v>1.574703955656331E-07</v>
-      </c>
-      <c r="F183">
-        <v>22</v>
+        <v>7.873519778281656E-08</v>
       </c>
       <c r="G183">
-        <v>0.3410861217975125</v>
+        <v>0.326385630551642</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>45053</v>
+        <v>45060</v>
       </c>
       <c r="B184">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C184">
-        <v>25.04761904761905</v>
+        <v>27.47619047619047</v>
       </c>
       <c r="D184">
-        <v>1.574703955656331E-07</v>
-      </c>
-      <c r="E184">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>0.3219288094318444</v>
+        <v>0.3074533230267067</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>45060</v>
+        <v>45067</v>
       </c>
       <c r="B185">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C185">
-        <v>25.04761904761905</v>
+        <v>27.52380952380953</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>7.873519778282242E-08</v>
       </c>
       <c r="G185">
-        <v>0.3039444122347025</v>
+        <v>0.289638464258464</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>45067</v>
+        <v>45074</v>
       </c>
       <c r="B186">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C186">
-        <v>25.09523809523809</v>
+        <v>27.57142857142857</v>
       </c>
       <c r="D186">
         <v>7.873519778281656E-08</v>
       </c>
       <c r="G186">
-        <v>0.2879677427326993</v>
+        <v>0.2738063258302381</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
-        <v>45074</v>
+        <v>45081</v>
       </c>
       <c r="B187">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C187">
-        <v>25.14285714285714</v>
+        <v>27.28571428571428</v>
       </c>
       <c r="D187">
-        <v>7.873519778281656E-08</v>
+        <v>-4.724111866969052E-07</v>
+      </c>
+      <c r="E187">
+        <v>23</v>
       </c>
       <c r="G187">
-        <v>0.2746978646329828</v>
+        <v>0.2607720492766378</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2">
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="B188">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C188">
-        <v>25</v>
+        <v>26.80952380952381</v>
       </c>
       <c r="D188">
-        <v>-2.362055933484497E-07</v>
-      </c>
-      <c r="E188">
-        <v>23</v>
+        <v>-7.873519778281655E-07</v>
+      </c>
+      <c r="F188">
+        <v>22</v>
       </c>
       <c r="G188">
-        <v>0.2648000925875745</v>
+        <v>0.2507970672283033</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="B189">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C189">
-        <v>24.57142857142857</v>
+        <v>26.80952380952381</v>
       </c>
       <c r="D189">
-        <v>-7.086167800453489E-07</v>
-      </c>
-      <c r="F189">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>29</v>
       </c>
       <c r="G189">
-        <v>0.2582312793332397</v>
+        <v>0.2437326610656721</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="B190">
         <v>26</v>
       </c>
       <c r="C190">
-        <v>24.52380952380953</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D190">
-        <v>-7.873519778281656E-08</v>
-      </c>
-      <c r="E190">
-        <v>26</v>
+        <v>-2.362055933484497E-07</v>
       </c>
       <c r="G190">
-        <v>0.2546716163769093</v>
+        <v>0.2400389673606891</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="B191">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C191">
-        <v>24.38095238095238</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D191">
-        <v>-2.362055933484555E-07</v>
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>25</v>
       </c>
       <c r="G191">
-        <v>0.2545696273114463</v>
+        <v>0.239427138040314</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="B192">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C192">
-        <v>24.33333333333333</v>
+        <v>26.61904761904762</v>
       </c>
       <c r="D192">
         <v>-7.873519778281656E-08</v>
       </c>
-      <c r="F192">
-        <v>21</v>
+      <c r="E192">
+        <v>26</v>
       </c>
       <c r="G192">
-        <v>0.2582167165225465</v>
+        <v>0.2422986110132973</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="B193">
         <v>24</v>
       </c>
       <c r="C193">
-        <v>24.33333333333333</v>
+        <v>26.57142857142857</v>
       </c>
       <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>24</v>
+        <v>-7.873519778281656E-08</v>
       </c>
       <c r="G193">
-        <v>0.2664352965065053</v>
+        <v>0.2491080992504217</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2">
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="B194">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C194">
-        <v>24.19047619047619</v>
+        <v>26.57142857142857</v>
       </c>
       <c r="D194">
-        <v>-2.362055933484497E-07</v>
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>0.2801722530088807</v>
+        <v>0.2605490976177207</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2">
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="B195">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C195">
-        <v>24.19047619047619</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>-2.362055933484555E-07</v>
+      </c>
+      <c r="F195">
+        <v>21</v>
       </c>
       <c r="G195">
-        <v>0.3002763327223831</v>
+        <v>0.2775896073024364</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="B196">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C196">
-        <v>24</v>
+        <v>25.71428571428572</v>
       </c>
       <c r="D196">
-        <v>-3.149407911312662E-07</v>
-      </c>
-      <c r="F196">
-        <v>18</v>
+        <v>-1.181027966742248E-06</v>
       </c>
       <c r="G196">
-        <v>0.3274940838472194</v>
+        <v>0.3007171419898532</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
-        <v>45144</v>
+        <v>45151</v>
       </c>
       <c r="B197">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C197">
-        <v>23.28571428571428</v>
+        <v>25.23809523809524</v>
       </c>
       <c r="D197">
-        <v>-1.181027966742254E-06</v>
+        <v>-7.873519778281714E-07</v>
+      </c>
+      <c r="E197">
+        <v>28</v>
       </c>
       <c r="G197">
-        <v>0.3620289206082641</v>
+        <v>0.3292168018276548</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="B198">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C198">
-        <v>22.80952380952381</v>
+        <v>24.90476190476191</v>
       </c>
       <c r="D198">
-        <v>-7.873519778281655E-07</v>
-      </c>
-      <c r="E198">
-        <v>25</v>
+        <v>-5.511463844797159E-07</v>
       </c>
       <c r="G198">
-        <v>0.4021660139158683</v>
+        <v>0.3648013693282006</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="B199">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C199">
-        <v>22.47619047619047</v>
+        <v>24.71428571428572</v>
       </c>
       <c r="D199">
-        <v>-5.511463844797217E-07</v>
+        <v>-3.149407911312662E-07</v>
       </c>
       <c r="G199">
-        <v>0.4483237470711876</v>
+        <v>0.406589326839824</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="B200">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C200">
-        <v>22.19047619047619</v>
+        <v>24.09523809523809</v>
       </c>
       <c r="D200">
-        <v>-4.724111866968993E-07</v>
+        <v>-1.023557571176621E-06</v>
       </c>
       <c r="G200">
-        <v>0.5010689452053271</v>
+        <v>0.4561940910722146</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2">
-        <v>45172</v>
+        <v>45179</v>
       </c>
       <c r="B201">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C201">
-        <v>21.66666666666667</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="D201">
-        <v>-8.66087175610982E-07</v>
-      </c>
-      <c r="F201">
-        <v>18</v>
+        <v>-6.298815822625325E-07</v>
       </c>
       <c r="G201">
-        <v>0.5638807799108886</v>
+        <v>0.5110045799707302</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2">
-        <v>45179</v>
+        <v>45186</v>
       </c>
       <c r="B202">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C202">
-        <v>21.33333333333333</v>
+        <v>23.38095238095238</v>
       </c>
       <c r="D202">
         <v>-5.511463844797217E-07</v>
       </c>
       <c r="G202">
-        <v>0.6355162838202029</v>
+        <v>0.5732983773326407</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B203">
         <v>19</v>
       </c>
       <c r="C203">
-        <v>21.09523809523809</v>
+        <v>23.09523809523809</v>
       </c>
       <c r="D203">
-        <v>-3.936759889140828E-07</v>
+        <v>-4.724111866968993E-07</v>
+      </c>
+      <c r="F203">
+        <v>19</v>
       </c>
       <c r="G203">
-        <v>0.7106598321307989</v>
+        <v>0.641704831092901</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B204">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C204">
-        <v>20.85714285714286</v>
+        <v>22.95238095238095</v>
       </c>
       <c r="D204">
-        <v>-3.936759889140828E-07</v>
-      </c>
-      <c r="F204">
-        <v>17</v>
+        <v>-2.362055933484497E-07</v>
+      </c>
+      <c r="E204">
+        <v>22</v>
       </c>
       <c r="G204">
-        <v>0.7695602645324775</v>
+        <v>0.7131821090372519</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="B205">
         <v>20</v>
       </c>
       <c r="C205">
-        <v>20.71428571428572</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="D205">
-        <v>-2.362055933484497E-07</v>
-      </c>
-      <c r="E205">
+        <v>-1.574703955656331E-07</v>
+      </c>
+      <c r="F205">
         <v>20</v>
       </c>
       <c r="G205">
-        <v>0.802088624032655</v>
+        <v>0.7692246019532747</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="2">
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="B206">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C206">
-        <v>20.66666666666667</v>
+        <v>23</v>
       </c>
       <c r="D206">
-        <v>-7.873519778281656E-08</v>
-      </c>
-      <c r="F206">
-        <v>19</v>
+        <v>2.362055933484497E-07</v>
       </c>
       <c r="G206">
-        <v>0.8207505707141505</v>
+        <v>0.7983222635618853</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B207">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C207">
-        <v>20.80952380952381</v>
+        <v>24.04761904761905</v>
       </c>
       <c r="D207">
-        <v>2.362055933484497E-07</v>
+        <v>1.73217435122197E-06</v>
+      </c>
+      <c r="E207">
+        <v>43</v>
       </c>
       <c r="G207">
-        <v>0.8283889625295141</v>
+        <v>0.8059315429923863</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B208">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C208">
-        <v>21.61904761904762</v>
+        <v>24.28571428571428</v>
       </c>
       <c r="D208">
-        <v>1.338498362307887E-06</v>
-      </c>
-      <c r="E208">
-        <v>36</v>
+        <v>3.936759889140828E-07</v>
+      </c>
+      <c r="F208">
+        <v>28</v>
       </c>
       <c r="G208">
-        <v>0.8193286562735698</v>
+        <v>0.8004539074002265</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B209">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C209">
-        <v>21.71428571428572</v>
+        <v>24.71428571428572</v>
       </c>
       <c r="D209">
-        <v>1.574703955656331E-07</v>
-      </c>
-      <c r="F209">
-        <v>25</v>
+        <v>7.086167800453549E-07</v>
+      </c>
+      <c r="E209">
+        <v>31</v>
       </c>
       <c r="G209">
-        <v>0.7982147917125253</v>
+        <v>0.7748340521319137</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B210">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C210">
-        <v>22.09523809523809</v>
+        <v>24.71428571428572</v>
       </c>
       <c r="D210">
-        <v>6.298815822625325E-07</v>
-      </c>
-      <c r="E210">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>0.7596018920486259</v>
+        <v>0.7308814307815267</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="B211">
         <v>27</v>
       </c>
       <c r="C211">
-        <v>22.14285714285714</v>
+        <v>24.76190476190476</v>
       </c>
       <c r="D211">
         <v>7.873519778281656E-08</v>
       </c>
       <c r="G211">
-        <v>0.7065141418082292</v>
+        <v>0.6696922999279032</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="B212">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C212">
-        <v>22.19047619047619</v>
+        <v>24.85714285714286</v>
       </c>
       <c r="D212">
-        <v>7.873519778281656E-08</v>
+        <v>1.574703955656331E-07</v>
       </c>
       <c r="G212">
-        <v>0.6433621373136892</v>
+        <v>0.5961732165681826</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="2">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="B213">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C213">
-        <v>22.33333333333333</v>
+        <v>25.71428571428572</v>
       </c>
       <c r="D213">
-        <v>2.362055933484497E-07</v>
-      </c>
-      <c r="F213">
-        <v>24</v>
+        <v>1.417233560090704E-06</v>
+      </c>
+      <c r="E213">
+        <v>44</v>
       </c>
       <c r="G213">
-        <v>0.571621919098696</v>
+        <v>0.5122860585280553</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="B214">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C214">
-        <v>23.09523809523809</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="D214">
-        <v>1.259763164525071E-06</v>
-      </c>
-      <c r="E214">
-        <v>40</v>
+        <v>7.873519778281655E-07</v>
       </c>
       <c r="G214">
-        <v>0.4916416660499522</v>
+        <v>0.4207086471798519</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="B215">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C215">
-        <v>23.52380952380953</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D215">
-        <v>7.086167800453549E-07</v>
+        <v>7.873519778281714E-07</v>
       </c>
       <c r="G215">
-        <v>0.4048367130032578</v>
+        <v>0.3216243675067288</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="B216">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C216">
-        <v>23.95238095238095</v>
+        <v>27.09523809523809</v>
       </c>
       <c r="D216">
         <v>7.086167800453489E-07</v>
       </c>
+      <c r="F216">
+        <v>30</v>
+      </c>
       <c r="G216">
-        <v>0.3122053140482395</v>
+        <v>0.216713593567882</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="B217">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C217">
-        <v>24.42857142857143</v>
+        <v>27.90476190476191</v>
       </c>
       <c r="D217">
-        <v>7.873519778281655E-07</v>
-      </c>
-      <c r="F217">
-        <v>28</v>
+        <v>1.338498362307887E-06</v>
       </c>
       <c r="G217">
-        <v>0.2151146148361064</v>
+        <v>0.1080216490835002</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2">
-        <v>45291</v>
+        <v>45298</v>
       </c>
       <c r="B218">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C218">
-        <v>25.14285714285714</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="D218">
-        <v>1.181027966742254E-06</v>
+        <v>2.283320735701686E-06</v>
+      </c>
+      <c r="E218">
+        <v>57</v>
       </c>
       <c r="G218">
-        <v>0.1129233276195011</v>
+        <v>-0.003476700353356131</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2">
-        <v>45298</v>
+        <v>45305</v>
       </c>
       <c r="B219">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C219">
-        <v>26.42857142857143</v>
+        <v>29.76190476190476</v>
       </c>
       <c r="D219">
-        <v>2.125850340136053E-06</v>
-      </c>
-      <c r="E219">
-        <v>52</v>
+        <v>7.873519778281714E-07</v>
       </c>
       <c r="G219">
-        <v>0.004915047816394686</v>
+        <v>-0.1142672417740458</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2">
-        <v>45305</v>
+        <v>45312</v>
       </c>
       <c r="B220">
         <v>32</v>
       </c>
       <c r="C220">
-        <v>26.95238095238095</v>
+        <v>30.14285714285714</v>
       </c>
       <c r="D220">
-        <v>8.66087175610988E-07</v>
+        <v>6.298815822625325E-07</v>
       </c>
       <c r="G220">
-        <v>-0.1060954126118971</v>
+        <v>-0.2314975696851801</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2">
-        <v>45312</v>
+        <v>45319</v>
       </c>
       <c r="B221">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C221">
-        <v>27.33333333333333</v>
+        <v>30.52380952380953</v>
       </c>
       <c r="D221">
-        <v>6.298815822625325E-07</v>
+        <v>6.298815822625383E-07</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
       </c>
       <c r="G221">
-        <v>-0.2228964031644058</v>
+        <v>-0.3552829142246831</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2">
-        <v>45319</v>
+        <v>45326</v>
       </c>
       <c r="B222">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C222">
-        <v>27.71428571428572</v>
+        <v>31</v>
       </c>
       <c r="D222">
-        <v>6.298815822625383E-07</v>
-      </c>
-      <c r="F222">
-        <v>26</v>
+        <v>7.873519778281655E-07</v>
       </c>
       <c r="G222">
-        <v>-0.3432413170614477</v>
+        <v>-0.4815208259116482</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2">
-        <v>45326</v>
+        <v>45333</v>
       </c>
       <c r="B223">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C223">
-        <v>28.14285714285714</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="D223">
-        <v>7.086167800453489E-07</v>
+        <v>2.204585537918875E-06</v>
+      </c>
+      <c r="E223">
+        <v>48</v>
       </c>
       <c r="G223">
-        <v>-0.4622724921320432</v>
+        <v>-0.6055773693213833</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2">
-        <v>45333</v>
+        <v>45340</v>
       </c>
       <c r="B224">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C224">
-        <v>29.33333333333333</v>
+        <v>33.09523809523809</v>
       </c>
       <c r="D224">
-        <v>1.96837994457042E-06</v>
-      </c>
-      <c r="E224">
-        <v>44</v>
+        <v>1.259763164525065E-06</v>
+      </c>
+      <c r="F224">
+        <v>35</v>
       </c>
       <c r="G224">
-        <v>-0.5780139486343955</v>
+        <v>-0.7082113215443842</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="B225">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C225">
-        <v>30.09523809523809</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="D225">
-        <v>1.259763164525071E-06</v>
-      </c>
-      <c r="F225">
-        <v>33</v>
+        <v>3.700554295792396E-06</v>
       </c>
       <c r="G225">
-        <v>-0.6799042278202375</v>
+        <v>-0.7987392895077291</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="B226">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C226">
-        <v>32.09523809523809</v>
+        <v>38.28571428571428</v>
       </c>
       <c r="D226">
-        <v>3.306878306878307E-06</v>
+        <v>4.881582262534638E-06</v>
+      </c>
+      <c r="E226">
+        <v>82</v>
       </c>
       <c r="G226">
-        <v>-0.7828209868564305</v>
+        <v>-0.8640613441449825</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2">
-        <v>45354</v>
+        <v>45361</v>
       </c>
       <c r="B227">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C227">
-        <v>34.71428571428572</v>
+        <v>40.57142857142857</v>
       </c>
       <c r="D227">
-        <v>4.330435878054928E-06</v>
-      </c>
-      <c r="E227">
-        <v>74</v>
+        <v>3.779289493575206E-06</v>
       </c>
       <c r="G227">
-        <v>-0.8695634603963633</v>
+        <v>-0.9063600871612121</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2">
-        <v>45361</v>
+        <v>45368</v>
       </c>
       <c r="B228">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C228">
-        <v>36.85714285714285</v>
+        <v>41.28571428571428</v>
       </c>
       <c r="D228">
-        <v>3.543083900226751E-06</v>
+        <v>1.181027966742254E-06</v>
       </c>
       <c r="G228">
-        <v>-0.9154241175404111</v>
+        <v>-0.9293418862522281</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2">
-        <v>45368</v>
+        <v>45375</v>
       </c>
       <c r="B229">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C229">
-        <v>37.61904761904762</v>
+        <v>42.19047619047619</v>
       </c>
       <c r="D229">
-        <v>1.259763164525077E-06</v>
+        <v>1.49596875787352E-06</v>
       </c>
       <c r="G229">
-        <v>-0.9329451640828776</v>
+        <v>-0.9329073738644122</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="B230">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C230">
-        <v>38.52380952380953</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D230">
-        <v>1.49596875787352E-06</v>
+        <v>1.102292768959432E-06</v>
+      </c>
+      <c r="F230">
+        <v>45</v>
       </c>
       <c r="G230">
-        <v>-0.9351547406211342</v>
+        <v>-0.9213635835017248</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B231">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C231">
-        <v>39.19047619047619</v>
+        <v>43.66666666666666</v>
       </c>
       <c r="D231">
-        <v>1.102292768959432E-06</v>
-      </c>
-      <c r="F231">
-        <v>42</v>
+        <v>1.338498362307887E-06</v>
       </c>
       <c r="G231">
-        <v>-0.9244425085264958</v>
+        <v>-0.8950891154889085</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="B232">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C232">
-        <v>40</v>
+        <v>45.19047619047619</v>
       </c>
       <c r="D232">
-        <v>1.338498362307887E-06</v>
+        <v>2.519526329050141E-06</v>
+      </c>
+      <c r="E232">
+        <v>59</v>
       </c>
       <c r="G232">
-        <v>-0.9082414604043429</v>
+        <v>-0.8632110769278887</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2">
-        <v>45396</v>
+        <v>45403</v>
       </c>
       <c r="B233">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C233">
-        <v>41.47619047619047</v>
+        <v>46</v>
       </c>
       <c r="D233">
-        <v>2.440791131267319E-06</v>
-      </c>
-      <c r="E233">
-        <v>56</v>
+        <v>1.338498362307887E-06</v>
       </c>
       <c r="G233">
-        <v>-0.8897278606778714</v>
+        <v>-0.8285509973874648</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2">
-        <v>45403</v>
+        <v>45410</v>
       </c>
       <c r="B234">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C234">
-        <v>42.19047619047619</v>
+        <v>45.85714285714285</v>
       </c>
       <c r="D234">
-        <v>1.181027966742254E-06</v>
+        <v>-2.362055933484555E-07</v>
       </c>
       <c r="G234">
-        <v>-0.8673248804996886</v>
+        <v>-0.7917493454908942</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2">
-        <v>45410</v>
+        <v>45417</v>
       </c>
       <c r="B235">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C235">
-        <v>42.14285714285715</v>
+        <v>45.80952380952381</v>
       </c>
       <c r="D235">
         <v>-7.873519778281068E-08</v>
       </c>
+      <c r="F235">
+        <v>33</v>
+      </c>
       <c r="G235">
-        <v>-0.8470092872826183</v>
+        <v>-0.7513697395561775</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2">
-        <v>45417</v>
+        <v>45424</v>
       </c>
       <c r="B236">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C236">
-        <v>42.19047619047619</v>
+        <v>45.90476190476191</v>
       </c>
       <c r="D236">
-        <v>7.873519778281068E-08</v>
+        <v>1.574703955656331E-07</v>
       </c>
       <c r="G236">
-        <v>-0.8302096686868835</v>
+        <v>-0.7129212200253016</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2">
-        <v>45424</v>
+        <v>45431</v>
       </c>
       <c r="B237">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C237">
-        <v>42.28571428571428</v>
+        <v>46.28571428571428</v>
       </c>
       <c r="D237">
-        <v>1.574703955656331E-07</v>
+        <v>6.298815822625325E-07</v>
+      </c>
+      <c r="E237">
+        <v>38</v>
       </c>
       <c r="G237">
-        <v>-0.820585096794209</v>
+        <v>-0.6838864911719179</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2">
-        <v>45431</v>
+        <v>45438</v>
       </c>
       <c r="B238">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C238">
-        <v>42.61904761904762</v>
+        <v>45.85714285714285</v>
       </c>
       <c r="D238">
-        <v>5.511463844797217E-07</v>
-      </c>
-      <c r="E238">
-        <v>35</v>
+        <v>-7.086167800453549E-07</v>
+      </c>
+      <c r="F238">
+        <v>31</v>
       </c>
       <c r="G238">
-        <v>-0.8214908818472997</v>
+        <v>-0.6670231673371831</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2">
-        <v>45438</v>
+        <v>45445</v>
       </c>
       <c r="B239">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C239">
-        <v>42.28571428571428</v>
+        <v>44.76190476190476</v>
       </c>
       <c r="D239">
-        <v>-5.511463844797217E-07</v>
-      </c>
-      <c r="F239">
-        <v>28</v>
+        <v>-1.810909549004786E-06</v>
+      </c>
+      <c r="E239">
+        <v>34</v>
       </c>
       <c r="G239">
-        <v>-0.8077505804738965</v>
+        <v>-0.6549936113954188</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2">
-        <v>45445</v>
+        <v>45452</v>
       </c>
       <c r="B240">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C240">
-        <v>41.28571428571428</v>
+        <v>44.71428571428572</v>
       </c>
       <c r="D240">
-        <v>-1.653439153439154E-06</v>
-      </c>
-      <c r="E240">
-        <v>31</v>
+        <v>-7.873519778281068E-08</v>
       </c>
       <c r="G240">
-        <v>-0.7624010587101161</v>
+        <v>-0.6202853390788123</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2">
-        <v>45452</v>
+        <v>45459</v>
       </c>
       <c r="B241">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C241">
-        <v>41.19047619047619</v>
+        <v>44.52380952380953</v>
       </c>
       <c r="D241">
-        <v>-1.574703955656331E-07</v>
+        <v>-3.149407911312662E-07</v>
+      </c>
+      <c r="F241">
+        <v>28</v>
       </c>
       <c r="G241">
-        <v>-0.6808626011538583</v>
+        <v>-0.5337581235257848</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B242">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C242">
-        <v>41.09523809523809</v>
+        <v>44.80952380952381</v>
       </c>
       <c r="D242">
-        <v>-1.574703955656331E-07</v>
-      </c>
-      <c r="F242">
-        <v>27</v>
+        <v>4.724111866968993E-07</v>
       </c>
       <c r="G242">
-        <v>-0.5917994150222123</v>
+        <v>-0.4128551903058532</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="2">
-        <v>45466</v>
+        <v>45473</v>
       </c>
       <c r="B243">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C243">
-        <v>41.19047619047619</v>
+        <v>45.04761904761905</v>
       </c>
       <c r="D243">
-        <v>1.574703955656331E-07</v>
+        <v>3.936759889140886E-07</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
       </c>
       <c r="G243">
-        <v>-0.4946339787484781</v>
+        <v>-0.2778244308019862</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="B244">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C244">
-        <v>41.38095238095238</v>
+        <v>44.33333333333334</v>
       </c>
       <c r="D244">
-        <v>3.149407911312662E-07</v>
-      </c>
-      <c r="E244">
-        <v>32</v>
+        <v>-1.181027966742254E-06</v>
+      </c>
+      <c r="F244">
+        <v>33</v>
       </c>
       <c r="G244">
-        <v>-0.3815044077498667</v>
+        <v>-0.1067998764410064</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="2">
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="B245">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C245">
-        <v>40.71428571428572</v>
+        <v>44.42857142857143</v>
       </c>
       <c r="D245">
-        <v>-1.102292768959432E-06</v>
-      </c>
-      <c r="F245">
-        <v>30</v>
+        <v>1.574703955656331E-07</v>
       </c>
       <c r="G245">
-        <v>-0.2873362246772773</v>
+        <v>0.03803983224643791</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="2">
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="B246">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C246">
-        <v>40.80952380952381</v>
+        <v>42.90476190476191</v>
       </c>
       <c r="D246">
-        <v>1.574703955656331E-07</v>
-      </c>
-      <c r="E246">
-        <v>35</v>
+        <v>-2.519526329050141E-06</v>
       </c>
       <c r="G246">
-        <v>-0.2368047379800172</v>
+        <v>0.1686178727909819</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="2">
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="B247">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C247">
-        <v>39.47619047619047</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="D247">
-        <v>-2.204585537918875E-06</v>
+        <v>-3.700554295792396E-06</v>
+      </c>
+      <c r="F247">
+        <v>35</v>
       </c>
       <c r="G247">
-        <v>-0.154919421542785</v>
+        <v>0.2945392194546196</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="2">
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="B248">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C248">
-        <v>37.57142857142857</v>
+        <v>39.80952380952381</v>
       </c>
       <c r="D248">
-        <v>-3.149407911312674E-06</v>
+        <v>-1.417233560090698E-06</v>
+      </c>
+      <c r="E248">
+        <v>54</v>
       </c>
       <c r="G248">
-        <v>0.03620464997457424</v>
+        <v>0.3950973790356997</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="2">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B249">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C249">
-        <v>36.76190476190476</v>
+        <v>38.61904761904762</v>
       </c>
       <c r="D249">
-        <v>-1.338498362307887E-06</v>
-      </c>
-      <c r="E249">
-        <v>50</v>
+        <v>-1.96837994457042E-06</v>
       </c>
       <c r="G249">
-        <v>0.235460263463304</v>
+        <v>0.5831018137737145</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="2">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="B250">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C250">
-        <v>35.71428571428572</v>
+        <v>37.85714285714285</v>
       </c>
       <c r="D250">
-        <v>-1.732174351221964E-06</v>
+        <v>-1.259763164525077E-06</v>
+      </c>
+      <c r="F250">
+        <v>31</v>
       </c>
       <c r="G250">
-        <v>0.427412369959249</v>
+        <v>0.7070851680371045</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="2">
-        <v>45522</v>
+        <v>45529</v>
       </c>
       <c r="B251">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C251">
-        <v>35</v>
+        <v>37.23809523809524</v>
       </c>
       <c r="D251">
-        <v>-1.181027966742254E-06</v>
+        <v>-1.023557571176609E-06</v>
       </c>
       <c r="G251">
-        <v>0.4277955302848891</v>
+        <v>0.6397609466354863</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="2">
-        <v>45529</v>
+        <v>45536</v>
       </c>
       <c r="B252">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C252">
-        <v>34.38095238095238</v>
+        <v>36.57142857142857</v>
       </c>
       <c r="D252">
-        <v>-1.023557571176621E-06</v>
+        <v>-1.102292768959443E-06</v>
       </c>
       <c r="G252">
-        <v>0.306016932965586</v>
+        <v>0.382472593635918</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="2">
-        <v>45536</v>
+        <v>45543</v>
       </c>
       <c r="B253">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C253">
-        <v>33.61904761904762</v>
+        <v>35.19047619047619</v>
       </c>
       <c r="D253">
-        <v>-1.259763164525065E-06</v>
+        <v>-2.283320735701686E-06</v>
+      </c>
+      <c r="F253">
+        <v>30</v>
       </c>
       <c r="G253">
-        <v>0.1810888882887679</v>
+        <v>0.2002794256425086</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="2">
-        <v>45543</v>
+        <v>45550</v>
       </c>
       <c r="B254">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C254">
-        <v>32.28571428571428</v>
+        <v>34.61904761904762</v>
       </c>
       <c r="D254">
-        <v>-2.204585537918875E-06</v>
+        <v>-9.448223733937986E-07</v>
       </c>
       <c r="G254">
-        <v>0.08588357924514285</v>
+        <v>0.05772754947044628</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="2">
-        <v>45550</v>
+        <v>45557</v>
       </c>
       <c r="B255">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C255">
-        <v>31.76190476190476</v>
+        <v>34.19047619047619</v>
       </c>
       <c r="D255">
-        <v>-8.66087175610982E-07</v>
+        <v>-7.086167800453549E-07</v>
       </c>
       <c r="G255">
-        <v>-0.2107834795062579</v>
+        <v>-0.1129745015239502</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="2">
-        <v>45557</v>
+        <v>45564</v>
       </c>
       <c r="B256">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C256">
-        <v>31.38095238095238</v>
+        <v>34.04761904761905</v>
       </c>
       <c r="D256">
-        <v>-6.298815822625383E-07</v>
-      </c>
-      <c r="E256">
-        <v>31</v>
+        <v>-2.362055933484438E-07</v>
       </c>
       <c r="G256">
-        <v>-0.5348670678854195</v>
+        <v>-0.4445441285062719</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="2">
-        <v>45564</v>
+        <v>45571</v>
       </c>
       <c r="B257">
         <v>27</v>
       </c>
       <c r="C257">
-        <v>31.19047619047619</v>
+        <v>33.71428571428572</v>
       </c>
       <c r="D257">
-        <v>-3.149407911312662E-07</v>
+        <v>-5.511463844797217E-07</v>
+      </c>
+      <c r="F257">
+        <v>27</v>
       </c>
       <c r="G257">
-        <v>-0.5817063403505897</v>
+        <v>-0.7019170117677059</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="2">
-        <v>45571</v>
+        <v>45578</v>
       </c>
       <c r="B258">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C258">
-        <v>30.90476190476191</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D258">
-        <v>-4.724111866968993E-07</v>
-      </c>
-      <c r="F258">
-        <v>25</v>
+        <v>-6.298815822625325E-07</v>
+      </c>
+      <c r="E258">
+        <v>30</v>
       </c>
       <c r="G258">
-        <v>-0.486699715500413</v>
+        <v>-0.7106660385438669</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="2">
-        <v>45578</v>
+        <v>45585</v>
       </c>
       <c r="B259">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C259">
-        <v>30.52380952380953</v>
+        <v>33.23809523809524</v>
       </c>
       <c r="D259">
-        <v>-6.298815822625325E-07</v>
-      </c>
-      <c r="E259">
-        <v>27</v>
+        <v>-1.574703955656331E-07</v>
+      </c>
+      <c r="F259">
+        <v>29</v>
       </c>
       <c r="G259">
-        <v>-0.2869534004660931</v>
+        <v>-0.6883373232164635</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="2">
-        <v>45585</v>
+        <v>45592</v>
       </c>
       <c r="B260">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C260">
-        <v>30.42857142857143</v>
+        <v>33.47619047619047</v>
       </c>
       <c r="D260">
-        <v>-1.57470395565639E-07</v>
-      </c>
-      <c r="F260">
-        <v>26</v>
+        <v>3.936759889140769E-07</v>
       </c>
       <c r="G260">
-        <v>0.523723971558134</v>
+        <v>-0.4264252373124342</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="2">
-        <v>45592</v>
+        <v>45599</v>
       </c>
       <c r="B261">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C261">
-        <v>30.71428571428572</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="D261">
-        <v>4.724111866969052E-07</v>
+        <v>1.96837994457042E-06</v>
       </c>
       <c r="G261">
-        <v>0.9576407257348847</v>
+        <v>0.5499004412402414</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="2">
-        <v>45599</v>
+        <v>45606</v>
       </c>
       <c r="B262">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C262">
-        <v>31.80952380952381</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="D262">
-        <v>1.810909549004786E-06</v>
+        <v>5.668934240362815E-06</v>
+      </c>
+      <c r="E262">
+        <v>100</v>
       </c>
       <c r="G262">
-        <v>0.9999999999998386</v>
+        <v>1.000000000000112</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="2">
-        <v>45606</v>
+        <v>45613</v>
       </c>
       <c r="B263">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C263">
-        <v>35.28571428571428</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="D263">
-        <v>5.747669438145626E-06</v>
+        <v>2.204585537918875E-06</v>
       </c>
       <c r="G263">
         <v>0</v>
